--- a/data/Wearable Inertial Sensors for Exergames (post survey)_August 31, 2019_11.58.xlsx
+++ b/data/Wearable Inertial Sensors for Exergames (post survey)_August 31, 2019_11.58.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\wearable-jacket\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9EC923-DBC0-4B1B-ADFE-F14E9808D55A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9804835F-B252-4D1E-B7AF-74222312F9A9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-6150" windowWidth="16440" windowHeight="28440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wearable Inertial Sensors for E" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="137">
   <si>
     <t>StartDate</t>
   </si>
@@ -459,6 +459,12 @@
   </si>
   <si>
     <t>Odd sum</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -3920,10 +3926,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21BC5C2A-44C9-4F92-A0A1-E5355093D816}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5145,15 +5151,100 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="Q20" s="6">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q21" s="6">
         <f>AVERAGE(Q3:Q19)</f>
         <v>88.82352941176471</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="Q21" s="6">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="2">
+        <f>COUNTIF(B3:B19,A22)</f>
+        <v>8</v>
+      </c>
+      <c r="C22" s="2">
+        <f>COUNTIF(C3:C19,"=Male")</f>
+        <v>11</v>
+      </c>
+      <c r="Q22" s="6">
         <f>_xlfn.STDEV.P(Q3:Q19)</f>
         <v>10.150255251021999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="2">
+        <f>COUNTIF(B3:B19,A23)</f>
+        <v>6</v>
+      </c>
+      <c r="C23" s="2">
+        <f>COUNTIF(C3:C19,"=Female")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="2">
+        <f>COUNTIF(B3:B19,A24)</f>
+        <v>1</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="2">
+        <f>COUNTIF(B3:B19,A25)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="2">
+        <f>COUNTIF(B4:B21,A26)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <f>SUM(B22:B26)</f>
+        <v>17</v>
+      </c>
+      <c r="C27">
+        <f>SUM(C22:C23)</f>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/Wearable Inertial Sensors for Exergames (post survey)_August 31, 2019_11.58.xlsx
+++ b/data/Wearable Inertial Sensors for Exergames (post survey)_August 31, 2019_11.58.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\wearable-jacket\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9804835F-B252-4D1E-B7AF-74222312F9A9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D3CCDD-0650-4191-8246-458E59BFDCE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-6150" windowWidth="16440" windowHeight="28440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-6150" windowWidth="16440" windowHeight="28440" tabRatio="762" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wearable Inertial Sensors for E" sheetId="1" r:id="rId1"/>
     <sheet name="data_question" sheetId="2" r:id="rId2"/>
     <sheet name="Calculation" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="161">
   <si>
     <t>StartDate</t>
   </si>
@@ -465,13 +467,85 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>q1</t>
+  </si>
+  <si>
+    <t>q2</t>
+  </si>
+  <si>
+    <t>q3</t>
+  </si>
+  <si>
+    <t>q4</t>
+  </si>
+  <si>
+    <t>q5</t>
+  </si>
+  <si>
+    <t>q6</t>
+  </si>
+  <si>
+    <t>q7</t>
+  </si>
+  <si>
+    <t>q8</t>
+  </si>
+  <si>
+    <t>q9</t>
+  </si>
+  <si>
+    <t>q10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left shoulder flexion-extension </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left shoulder abduction-adduction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left shoulder internal external rotation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left elbow flexion-extension from neutral-pose </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left elbow flexion-extension after 90° abduction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right shoulder flexion-extension </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right shoulder abduction-adduction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right shoulder internal-external rotation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right elbow flexion-extension from neutral-pose </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right elbow flexion-extension after 90° abduction </t>
+  </si>
+  <si>
+    <t>Plane</t>
+  </si>
+  <si>
+    <t>Sagittal</t>
+  </si>
+  <si>
+    <t>Coronal</t>
+  </si>
+  <si>
+    <t>Transverse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -605,6 +679,27 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF008080"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF008080"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -788,7 +883,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -903,6 +998,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -948,7 +1076,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -964,6 +1092,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1020,6 +1184,4764 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.934665191644432E-2"/>
+          <c:y val="3.9960035768951706E-2"/>
+          <c:w val="0.91815436293603792"/>
+          <c:h val="0.85023298111349432"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AH$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Neither agree nor disagree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.8790222728292838E-3"/>
+                  <c:y val="1.0576163504404321E-16"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D550DD27-44E5-4154-99DE-405BF1320553}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{47ABAF8D-44A3-467D-B751-DD4C1876E57A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F2F4E765-9AB1-4FBF-A5EC-2A8BF8118024}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2F87902D-749D-4531-8AAB-7169096DA0CF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.4798370454715472E-2"/>
+                  <c:y val="2.2712138194858819E-7"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{EB8DAC7C-6D5E-4111-A2D6-5A9C5B406029}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3A38F487-BE52-44BE-A703-CD0BD7843AEC}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A0EE8F6B-7880-4766-8599-A106072DFCC0}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.9193481818860805E-3"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BF7D7B2F-9D09-4AA6-B182-A7D3932DC1E3}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{011CD090-69D5-47C7-A101-C511E3C38C4F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{28484FD1-27CB-4FDD-A953-1D75DE805E22}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="0;0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AD$14:$AD$23</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>q6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>q7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>q8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>q9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>q10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AE$14:$AE$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-5.882352941176471</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.882352941176471</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.9411764705882355</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$AG$28:$AG$37</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>6</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1A7C-4B20-AECC-65E019728400}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AF$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Strongly disagree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8F1B05C9-2541-41C4-8E16-04DE0E842C2F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F80B7EA6-A67A-4E05-8EE9-DEDE957D08B3}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{625CCFBB-5F68-4BB6-A246-5BBDA65A8DBF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5F37AC8B-F0DD-48FA-BC42-D1E3C2709F4C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B34A344C-6AAE-483A-A6D1-D0277A6DA0C8}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{28F266E0-28AA-42FE-A63B-8672019A38F1}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6488EFBD-6DB9-435D-BC9E-7E8624EED891}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4D326A92-BB9F-4405-90AA-3A7208B45F3A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{991C2A9D-1C0E-43D5-940E-4C08568436BE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4FDCB594-005D-4111-B188-A98A758E8DBC}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="0;0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AD$14:$AD$23</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>q6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>q7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>q8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>q9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>q10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AF$14:$AF$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-76.470588235294116</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-64.705882352941174</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.882352941176471</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-64.705882352941174</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-70.588235294117652</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-76.470588235294116</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$AH$28:$AH$37</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="1">
+                    <c:v>76</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>65</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>65</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>71</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>76</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1A7C-4B20-AECC-65E019728400}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AG$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Somewhat disagree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A9E3907D-E1E1-4672-8173-7A3BB3A7566C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E15C636A-72E5-4890-BA85-3ECA3EE5DC74}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E7EB7DF7-F278-4892-9A5A-5F2BD66AAD9C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D041931B-91AB-4972-B6A8-23568E9CFE3A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A45C8A4A-B89C-4063-9FEA-1A5AAF6ECE8C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0BB6A4C7-61AE-43CF-8E4C-1714151A3DFF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8DB288A4-E231-4719-8673-5A32AF6ED1CC}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001A-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{AE352B58-6220-451A-A9EB-203CC132CD46}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001B-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B69B24F9-645E-45C3-A428-0E30AC21D3D4}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001C-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{532B9445-F880-4402-B25D-BB0E6846E97F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001D-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="0;0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AD$14:$AD$23</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>q6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>q7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>q8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>q9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>q10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AG$14:$AG$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-5.882352941176471</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-23.529411764705884</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-17.647058823529413</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-23.529411764705884</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-23.529411764705884</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-17.647058823529413</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$AI$28:$AI$37</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>18</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1A7C-4B20-AECC-65E019728400}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AH$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Neither agree nor disagree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AD$14:$AD$23</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>q6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>q7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>q8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>q9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>q10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AH$14:$AH$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.882352941176471</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.882352941176471</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9411764705882355</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1A7C-4B20-AECC-65E019728400}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AI$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Somewhat agree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B6449245-452A-47FA-A4FA-D99A406F710A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001E-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6FF33912-0838-4B0C-91CB-2C23FD76CAAE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001F-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DFA85A05-53C6-4EB6-AC45-DAB0F38F4624}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000020-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BD8AD668-51F8-4A83-A314-EC37AA32CA80}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000021-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E489E08B-9721-4B55-A2E0-BCD9FC5B7D25}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000022-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D0C771F8-0577-41C5-A9D6-9900123E06A6}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000023-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5D3CF8B4-847D-43E7-9615-6CAFBCC97209}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000024-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6F05B5D3-3B32-47E0-9103-B4A64F39198E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000025-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0634576B-870D-4CC9-B9A2-E44E208271BF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000026-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8A082139-F554-4E5D-BBD9-F80B6DA2B238}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000027-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="0;0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AD$14:$AD$23</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>q6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>q7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>q8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>q9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>q10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AI$14:$AI$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>47.058823529411768</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.647058823529413</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.764705882352942</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.411764705882351</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.764705882352942</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.529411764705884</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.764705882352942</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.882352941176471</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$AK$28:$AK$37</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>47</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>29</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>6</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1A7C-4B20-AECC-65E019728400}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AJ$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Strongly agree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{31794CCC-243E-4BF5-98EB-C2E3E684DE19}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000028-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6D559C9F-7618-4B76-8A30-8191AD98AA4A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000029-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{AADE0312-0C9A-4CC8-A488-65AF59BAC7BC}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002A-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BB0BFA3D-5DD7-4062-8E84-3E4BA9F7AB49}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002B-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DFFF170E-8D43-4822-88FA-E4EAA22A4A95}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002C-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3EA41824-BC68-4011-BA79-16FB198D4386}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002D-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B8C84B8C-2E33-4F13-9FC2-F53A3D3D6982}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002E-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6A9D45F8-1A32-4B78-B998-F9D1880639FE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002F-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A9A0C62E-3074-4428-AC94-41D4B4021C76}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000030-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FF71EBB2-43C5-4E5A-A105-1F42AC93CA37}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000031-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="0;0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AD$14:$AD$23</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>q6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>q7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>q8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>q9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>q10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AJ$14:$AJ$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>35.294117647058826</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.352941176470594</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.882352941176471</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52.941176470588232</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.470588235294116</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88.235294117647058</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$AL$28:$AL$37</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>35</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>82</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>53</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>76</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>88</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1A7C-4B20-AECC-65E019728400}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:overlap val="100"/>
+        <c:axId val="1895537647"/>
+        <c:axId val="1188426431"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1895537647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1188426431"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1188426431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.0%;0.0%" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1895537647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.0864995181387451E-2"/>
+          <c:y val="0.94388069132114694"/>
+          <c:w val="0.96141826021747279"/>
+          <c:h val="3.8590534670987428E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>439509</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>72797</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>1673678</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>115661</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBB4777F-4C90-44E6-9FFC-482DF774B1E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>499110</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3EBC074-41A4-420B-BAE9-5AE311A57579}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21063857" y="9144000"/>
+          <a:ext cx="8595360" cy="8816340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91533F21-F9AC-4958-94B5-F153741312A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3914775" y="19050"/>
+          <a:ext cx="276225" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53F9FF79-B1B6-4F85-AB16-0CF14BEE012C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4543425" y="9525"/>
+          <a:ext cx="314325" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6193B9D-9C39-4CA2-96DA-093DEEBCB85B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="0"/>
+          <a:ext cx="428625" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3BE8954-6F1C-40C3-B16D-94380C5768D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="5400675"/>
+          <a:ext cx="381000" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47DA7031-ED66-4388-B827-C7AB08CB28D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="5781675"/>
+          <a:ext cx="400050" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07C31B4D-19FD-4963-B653-D22A4BD48E2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="6162675"/>
+          <a:ext cx="361950" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B81C5A1-732C-4FCB-86D0-D845D85EB13E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="6543675"/>
+          <a:ext cx="457200" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE371D02-2CC1-4C6B-998C-FAB9A60DB272}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="6924675"/>
+          <a:ext cx="457200" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78FACE58-E24C-45C5-8B58-CF93AAAB26A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7305675"/>
+          <a:ext cx="390525" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2B958AB-BF7B-4BB9-8BEF-CE353753BFFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7686675"/>
+          <a:ext cx="409575" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4BB989F-E2A1-4511-8A6B-3E92C1E8AF3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8067675"/>
+          <a:ext cx="371475" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D52DA72D-0A6A-40A9-8D79-A593C8D59E25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8448675"/>
+          <a:ext cx="466725" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D54F85AC-B3E7-4A4D-9FEE-17238ECF3C3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8829675"/>
+          <a:ext cx="466725" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D78E0C5-ACED-4CBA-B5C6-09589552187B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6457950" y="9525"/>
+          <a:ext cx="276225" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCC8E943-C6CB-4B6D-A065-65679EC18A3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7115175" y="19050"/>
+          <a:ext cx="314325" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A461F82-4E92-4B5C-BA87-2EF217D0F3DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7696200" y="0"/>
+          <a:ext cx="428625" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1319,10 +6241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE21"/>
+  <dimension ref="A1:AE29"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="R1:AE1048576"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3096,6 +8018,31 @@
         <v>95</v>
       </c>
     </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="U25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="U26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="U27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="U28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="U29" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3103,10 +8050,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F39EB6-03DD-4B3F-AC3F-54667C4F5CB8}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O51" sqref="O51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3124,7 +8071,7 @@
     <col min="11" max="11" width="71.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="40.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="66.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="79.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3919,17 +8866,98 @@
         <v>95</v>
       </c>
     </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <v>6</v>
+      </c>
+      <c r="N33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <v>7</v>
+      </c>
+      <c r="N34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <v>8</v>
+      </c>
+      <c r="N35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <v>9</v>
+      </c>
+      <c r="N36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <v>10</v>
+      </c>
+      <c r="N37" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21BC5C2A-44C9-4F92-A0A1-E5355093D816}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4952,7 +9980,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2064</v>
       </c>
@@ -5018,7 +10046,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>3162</v>
       </c>
@@ -5084,7 +10112,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2463</v>
       </c>
@@ -5149,8 +10177,12 @@
         <f t="shared" si="2"/>
         <v>92.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S19">
+        <f>MEDIAN(Q3:Q19)</f>
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5167,8 +10199,12 @@
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S20">
+        <f>QUARTILE(Q3:Q19,1)</f>
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
         <v>135</v>
       </c>
@@ -5176,8 +10212,12 @@
         <f>AVERAGE(Q3:Q19)</f>
         <v>88.82352941176471</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S21">
+        <f>QUARTILE(Q3:Q19,3)</f>
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>108</v>
       </c>
@@ -5194,7 +10234,7 @@
         <v>10.150255251021999</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -5207,7 +10247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>106</v>
       </c>
@@ -5219,7 +10259,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>99</v>
       </c>
@@ -5228,7 +10268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>114</v>
       </c>
@@ -5237,7 +10277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <f>SUM(B22:B26)</f>
         <v>17</v>
@@ -5250,4 +10290,2145 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2DD505A-8013-4D07-9F70-FBD34166A50F}">
+  <dimension ref="B1:AL37"/>
+  <sheetViews>
+    <sheetView topLeftCell="Q1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="AF72" sqref="AF72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="10" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.5703125" customWidth="1"/>
+    <col min="16" max="16" width="3.7109375" style="3" customWidth="1"/>
+    <col min="17" max="26" width="9.140625" style="3"/>
+    <col min="31" max="31" width="27.140625" customWidth="1"/>
+    <col min="32" max="32" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AE1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>11.764705882352942</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>5.882352941176471</v>
+      </c>
+      <c r="AH2" s="3">
+        <v>11.764705882352942</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>47.058823529411768</v>
+      </c>
+      <c r="AJ2" s="3">
+        <v>35.294117647058826</v>
+      </c>
+    </row>
+    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>76.470588235294116</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>23.529411764705884</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>95</v>
+      </c>
+      <c r="P4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3">
+        <f>COUNTIF(B$3:B$19,$P4)*100/17</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="3">
+        <f t="shared" ref="R4:Z8" si="0">COUNTIF(C$3:C$19,$P4)*100/17</f>
+        <v>76.470588235294116</v>
+      </c>
+      <c r="S4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T4" s="3">
+        <f t="shared" si="0"/>
+        <v>64.705882352941174</v>
+      </c>
+      <c r="U4" s="3">
+        <f t="shared" si="0"/>
+        <v>5.882352941176471</v>
+      </c>
+      <c r="V4" s="3">
+        <f t="shared" si="0"/>
+        <v>64.705882352941174</v>
+      </c>
+      <c r="W4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X4" s="3">
+        <f t="shared" si="0"/>
+        <v>70.588235294117652</v>
+      </c>
+      <c r="Y4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="3">
+        <f t="shared" si="0"/>
+        <v>76.470588235294116</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>17.647058823529413</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>82.352941176470594</v>
+      </c>
+    </row>
+    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="3">
+        <f t="shared" ref="Q5:Q8" si="1">COUNTIF(B$3:B$19,$P5)*100/17</f>
+        <v>5.882352941176471</v>
+      </c>
+      <c r="R5" s="3">
+        <f t="shared" si="0"/>
+        <v>23.529411764705884</v>
+      </c>
+      <c r="S5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="3">
+        <f t="shared" si="0"/>
+        <v>17.647058823529413</v>
+      </c>
+      <c r="U5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="3">
+        <f t="shared" si="0"/>
+        <v>23.529411764705884</v>
+      </c>
+      <c r="W5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X5" s="3">
+        <f t="shared" si="0"/>
+        <v>23.529411764705884</v>
+      </c>
+      <c r="Y5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="3">
+        <f t="shared" si="0"/>
+        <v>17.647058823529413</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>64.705882352941174</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>17.647058823529413</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>11.764705882352942</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>5.882352941176471</v>
+      </c>
+    </row>
+    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P6" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="3">
+        <f t="shared" si="1"/>
+        <v>11.764705882352942</v>
+      </c>
+      <c r="R6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="3">
+        <f t="shared" si="0"/>
+        <v>11.764705882352942</v>
+      </c>
+      <c r="V6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="3">
+        <f t="shared" si="0"/>
+        <v>5.882352941176471</v>
+      </c>
+      <c r="Y6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>11.764705882352942</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>5.882352941176471</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>11.764705882352942</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>29.411764705882351</v>
+      </c>
+      <c r="AJ6" s="3">
+        <v>52.941176470588232</v>
+      </c>
+    </row>
+    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="O7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P7" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="3">
+        <f t="shared" si="1"/>
+        <v>47.058823529411768</v>
+      </c>
+      <c r="R7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <f t="shared" si="0"/>
+        <v>17.647058823529413</v>
+      </c>
+      <c r="T7" s="3">
+        <f t="shared" si="0"/>
+        <v>11.764705882352942</v>
+      </c>
+      <c r="U7" s="3">
+        <f t="shared" si="0"/>
+        <v>29.411764705882351</v>
+      </c>
+      <c r="V7" s="3">
+        <f t="shared" si="0"/>
+        <v>11.764705882352942</v>
+      </c>
+      <c r="W7" s="3">
+        <f t="shared" si="0"/>
+        <v>23.529411764705884</v>
+      </c>
+      <c r="X7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="3">
+        <f t="shared" si="0"/>
+        <v>11.764705882352942</v>
+      </c>
+      <c r="Z7" s="3">
+        <f t="shared" si="0"/>
+        <v>5.882352941176471</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>64.705882352941174</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>23.529411764705884</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>11.764705882352942</v>
+      </c>
+      <c r="AJ7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>96</v>
+      </c>
+      <c r="P8" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="3">
+        <f t="shared" si="1"/>
+        <v>35.294117647058826</v>
+      </c>
+      <c r="R8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <f t="shared" si="0"/>
+        <v>82.352941176470594</v>
+      </c>
+      <c r="T8" s="3">
+        <f t="shared" si="0"/>
+        <v>5.882352941176471</v>
+      </c>
+      <c r="U8" s="3">
+        <f t="shared" si="0"/>
+        <v>52.941176470588232</v>
+      </c>
+      <c r="V8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <f t="shared" si="0"/>
+        <v>76.470588235294116</v>
+      </c>
+      <c r="X8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <f t="shared" si="0"/>
+        <v>88.235294117647058</v>
+      </c>
+      <c r="Z8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>23.529411764705884</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>76.470588235294116</v>
+      </c>
+    </row>
+    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>5.882352941176471</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>70.588235294117652</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>23.529411764705884</v>
+      </c>
+      <c r="AH9" s="3">
+        <v>5.882352941176471</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="3">
+        <v>11.764705882352942</v>
+      </c>
+      <c r="AJ10" s="3">
+        <v>88.235294117647058</v>
+      </c>
+    </row>
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>76.470588235294116</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>17.647058823529413</v>
+      </c>
+      <c r="AH11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>5.882352941176471</v>
+      </c>
+      <c r="AJ11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="O13" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>76.470588235294116</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>64.705882352941174</v>
+      </c>
+      <c r="U13" s="3">
+        <v>5.882352941176471</v>
+      </c>
+      <c r="V13" s="3">
+        <v>64.705882352941174</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>70.588235294117652</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>76.470588235294116</v>
+      </c>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG13" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH13" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ13" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="O14" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>5.882352941176471</v>
+      </c>
+      <c r="R14" s="3">
+        <v>23.529411764705884</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>17.647058823529413</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>23.529411764705884</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>23.529411764705884</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>17.647058823529413</v>
+      </c>
+      <c r="AD14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE14" s="7">
+        <f>AE2*-1/2</f>
+        <v>-5.882352941176471</v>
+      </c>
+      <c r="AF14" s="7">
+        <f>AF2*-1</f>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="7">
+        <f>AG2*-1</f>
+        <v>-5.882352941176471</v>
+      </c>
+      <c r="AH14" s="7">
+        <f>AH2/2</f>
+        <v>5.882352941176471</v>
+      </c>
+      <c r="AI14" s="7">
+        <v>47.058823529411768</v>
+      </c>
+      <c r="AJ14" s="7">
+        <v>35.294117647058826</v>
+      </c>
+    </row>
+    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="O15" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>11.764705882352942</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>11.764705882352942</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>5.882352941176471</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE15" s="7">
+        <f t="shared" ref="AE15:AE23" si="2">AE3*-1/2</f>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="7">
+        <f t="shared" ref="AF15:AG23" si="3">AF3*-1</f>
+        <v>-76.470588235294116</v>
+      </c>
+      <c r="AG15" s="7">
+        <f t="shared" si="3"/>
+        <v>-23.529411764705884</v>
+      </c>
+      <c r="AH15" s="7">
+        <f t="shared" ref="AH15:AH23" si="4">AH3/2</f>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="O16" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>47.058823529411768</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0</v>
+      </c>
+      <c r="S16" s="3">
+        <v>17.647058823529413</v>
+      </c>
+      <c r="T16" s="3">
+        <v>11.764705882352942</v>
+      </c>
+      <c r="U16" s="3">
+        <v>29.411764705882351</v>
+      </c>
+      <c r="V16" s="3">
+        <v>11.764705882352942</v>
+      </c>
+      <c r="W16" s="3">
+        <v>23.529411764705884</v>
+      </c>
+      <c r="X16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>11.764705882352942</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>5.882352941176471</v>
+      </c>
+      <c r="AD16" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE16" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI16" s="7">
+        <v>17.647058823529413</v>
+      </c>
+      <c r="AJ16" s="7">
+        <v>82.352941176470594</v>
+      </c>
+    </row>
+    <row r="17" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="O17" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>35.294117647058826</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>82.352941176470594</v>
+      </c>
+      <c r="T17" s="3">
+        <v>5.882352941176471</v>
+      </c>
+      <c r="U17" s="3">
+        <v>52.941176470588232</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
+        <v>76.470588235294116</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>88.235294117647058</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE17" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="7">
+        <f t="shared" si="3"/>
+        <v>-64.705882352941174</v>
+      </c>
+      <c r="AG17" s="7">
+        <f t="shared" si="3"/>
+        <v>-17.647058823529413</v>
+      </c>
+      <c r="AH17" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="7">
+        <v>11.764705882352942</v>
+      </c>
+      <c r="AJ17" s="7">
+        <v>5.882352941176471</v>
+      </c>
+    </row>
+    <row r="18" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE18" s="7">
+        <f t="shared" si="2"/>
+        <v>-5.882352941176471</v>
+      </c>
+      <c r="AF18" s="7">
+        <f t="shared" si="3"/>
+        <v>-5.882352941176471</v>
+      </c>
+      <c r="AG18" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="7">
+        <f t="shared" si="4"/>
+        <v>5.882352941176471</v>
+      </c>
+      <c r="AI18" s="7">
+        <v>29.411764705882351</v>
+      </c>
+      <c r="AJ18" s="7">
+        <v>52.941176470588232</v>
+      </c>
+    </row>
+    <row r="19" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE19" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="7">
+        <f t="shared" si="3"/>
+        <v>-64.705882352941174</v>
+      </c>
+      <c r="AG19" s="7">
+        <f t="shared" si="3"/>
+        <v>-23.529411764705884</v>
+      </c>
+      <c r="AH19" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI19" s="7">
+        <v>11.764705882352942</v>
+      </c>
+      <c r="AJ19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AD20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE20" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH20" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI20" s="7">
+        <v>23.529411764705884</v>
+      </c>
+      <c r="AJ20" s="7">
+        <v>76.470588235294116</v>
+      </c>
+    </row>
+    <row r="21" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="Z21" s="8"/>
+      <c r="AD21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE21" s="7">
+        <f t="shared" si="2"/>
+        <v>-2.9411764705882355</v>
+      </c>
+      <c r="AF21" s="7">
+        <f t="shared" si="3"/>
+        <v>-70.588235294117652</v>
+      </c>
+      <c r="AG21" s="7">
+        <f t="shared" si="3"/>
+        <v>-23.529411764705884</v>
+      </c>
+      <c r="AH21" s="7">
+        <f t="shared" si="4"/>
+        <v>2.9411764705882355</v>
+      </c>
+      <c r="AI21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AD22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE22" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI22" s="7">
+        <v>11.764705882352942</v>
+      </c>
+      <c r="AJ22" s="7">
+        <v>88.235294117647058</v>
+      </c>
+    </row>
+    <row r="23" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AD23" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE23" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="7">
+        <f t="shared" si="3"/>
+        <v>-76.470588235294116</v>
+      </c>
+      <c r="AG23" s="7">
+        <f t="shared" si="3"/>
+        <v>-17.647058823529413</v>
+      </c>
+      <c r="AH23" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI23" s="7">
+        <v>5.882352941176471</v>
+      </c>
+      <c r="AJ23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AG28" s="10">
+        <v>12</v>
+      </c>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="10">
+        <v>5.8823529411764701</v>
+      </c>
+      <c r="AJ28" s="10">
+        <v>5.882352941176471</v>
+      </c>
+      <c r="AK28" s="10">
+        <v>47.058823529411768</v>
+      </c>
+      <c r="AL28" s="10">
+        <v>35.294117647058826</v>
+      </c>
+    </row>
+    <row r="29" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AG29" s="10"/>
+      <c r="AH29" s="10">
+        <v>76.470588235294102</v>
+      </c>
+      <c r="AI29" s="10">
+        <v>23.529411764705898</v>
+      </c>
+      <c r="AJ29" s="10"/>
+      <c r="AK29" s="10"/>
+      <c r="AL29" s="10"/>
+    </row>
+    <row r="30" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="Y30" s="9"/>
+      <c r="AG30" s="10"/>
+      <c r="AH30" s="10"/>
+      <c r="AI30" s="10"/>
+      <c r="AJ30" s="10"/>
+      <c r="AK30" s="10">
+        <v>17.647058823529413</v>
+      </c>
+      <c r="AL30" s="10">
+        <v>82.352941176470594</v>
+      </c>
+    </row>
+    <row r="31" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AG31" s="10"/>
+      <c r="AH31" s="10">
+        <v>64.705882352941202</v>
+      </c>
+      <c r="AI31" s="10">
+        <v>17.647058823529399</v>
+      </c>
+      <c r="AJ31" s="10"/>
+      <c r="AK31" s="10">
+        <v>11.764705882352942</v>
+      </c>
+      <c r="AL31" s="10">
+        <v>5.882352941176471</v>
+      </c>
+    </row>
+    <row r="32" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AG32" s="10">
+        <v>12</v>
+      </c>
+      <c r="AH32" s="10">
+        <v>5.8823529411764701</v>
+      </c>
+      <c r="AI32" s="10"/>
+      <c r="AJ32" s="10">
+        <v>5.882352941176471</v>
+      </c>
+      <c r="AK32" s="10">
+        <v>29.411764705882351</v>
+      </c>
+      <c r="AL32" s="10">
+        <v>52.941176470588232</v>
+      </c>
+    </row>
+    <row r="33" spans="33:38" x14ac:dyDescent="0.25">
+      <c r="AG33" s="10"/>
+      <c r="AH33" s="10">
+        <v>64.705882352941202</v>
+      </c>
+      <c r="AI33" s="10">
+        <v>23.529411764705898</v>
+      </c>
+      <c r="AJ33" s="10"/>
+      <c r="AK33" s="10">
+        <v>11.764705882352942</v>
+      </c>
+      <c r="AL33" s="10"/>
+    </row>
+    <row r="34" spans="33:38" x14ac:dyDescent="0.25">
+      <c r="AG34" s="10"/>
+      <c r="AH34" s="10"/>
+      <c r="AI34" s="10"/>
+      <c r="AJ34" s="10"/>
+      <c r="AK34" s="10">
+        <v>23.529411764705884</v>
+      </c>
+      <c r="AL34" s="10">
+        <v>76.470588235294116</v>
+      </c>
+    </row>
+    <row r="35" spans="33:38" x14ac:dyDescent="0.25">
+      <c r="AG35" s="10">
+        <v>6</v>
+      </c>
+      <c r="AH35" s="10">
+        <v>70.588235294117695</v>
+      </c>
+      <c r="AI35" s="10">
+        <v>23.529411764705898</v>
+      </c>
+      <c r="AJ35" s="10">
+        <v>2.9411764705882355</v>
+      </c>
+      <c r="AK35" s="10"/>
+      <c r="AL35" s="10"/>
+    </row>
+    <row r="36" spans="33:38" x14ac:dyDescent="0.25">
+      <c r="AG36" s="10"/>
+      <c r="AH36" s="10"/>
+      <c r="AI36" s="10"/>
+      <c r="AJ36" s="10"/>
+      <c r="AK36" s="10">
+        <v>11.764705882352942</v>
+      </c>
+      <c r="AL36" s="10">
+        <v>88.235294117647058</v>
+      </c>
+    </row>
+    <row r="37" spans="33:38" x14ac:dyDescent="0.25">
+      <c r="AG37" s="10"/>
+      <c r="AH37" s="10">
+        <v>76.470588235294102</v>
+      </c>
+      <c r="AI37" s="10">
+        <v>17.647058823529399</v>
+      </c>
+      <c r="AJ37" s="10"/>
+      <c r="AK37" s="10">
+        <v>5.882352941176471</v>
+      </c>
+      <c r="AL37" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8268C1A4-9360-4D70-A585-6E201842CAD7}">
+  <dimension ref="A1:H65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="12">
+        <v>0.73</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0.65</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0.81</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="2" t="str" cm="1">
+        <f t="array" ref="F2">_xlfn.IFS(AND(B2&gt;=0.4,B2&lt;=0.6),"moderate",AND(B2&gt;=0.6,B2&lt;=0.8),"good",AND(B2&gt;=0.8,B2&lt;=1),"very good")</f>
+        <v>good</v>
+      </c>
+      <c r="G2" s="2" t="str" cm="1">
+        <f t="array" ref="G2">_xlfn.IFS(AND(C2&gt;=0.4,C2&lt;=0.6),"moderate",AND(C2&gt;=0.6,C2&lt;=0.8),"good",AND(C2&gt;=0.8,C2&lt;=1),"very good")</f>
+        <v>good</v>
+      </c>
+      <c r="H2" s="2" t="str" cm="1">
+        <f t="array" ref="H2">_xlfn.IFS(AND(D2&gt;=0.4,D2&lt;=0.6),"moderate",AND(D2&gt;=0.6,D2&lt;=0.8),"good",AND(D2&gt;=0.8,D2&lt;=1),"very good")</f>
+        <v>very good</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0.68</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.71</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="2" t="str" cm="1">
+        <f t="array" ref="F3">_xlfn.IFS(AND(B3&gt;=0.4,B3&lt;=0.6),"moderate",AND(B3&gt;=0.6,B3&lt;=0.8),"good",AND(B3&gt;=0.8,B3&lt;=1),"very good")</f>
+        <v>good</v>
+      </c>
+      <c r="G3" s="2" t="str" cm="1">
+        <f t="array" ref="G3">_xlfn.IFS(AND(C3&gt;=0.4,C3&lt;=0.6),"moderate",AND(C3&gt;=0.6,C3&lt;=0.8),"good",AND(C3&gt;=0.8,C3&lt;=1),"very good")</f>
+        <v>good</v>
+      </c>
+      <c r="H3" s="2" t="str" cm="1">
+        <f t="array" ref="H3">_xlfn.IFS(AND(D3&gt;=0.4,D3&lt;=0.6),"moderate",AND(D3&gt;=0.6,D3&lt;=0.8),"good",AND(D3&gt;=0.8,D3&lt;=1),"very good")</f>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="2" t="str" cm="1">
+        <f t="array" ref="F4">_xlfn.IFS(AND(B4&gt;=0.4,B4&lt;=0.6),"moderate",AND(B4&gt;=0.6,B4&lt;=0.8),"good",AND(B4&gt;=0.8,B4&lt;=1),"very good")</f>
+        <v>moderate</v>
+      </c>
+      <c r="G4" s="2" t="str" cm="1">
+        <f t="array" ref="G4">_xlfn.IFS(AND(C4&gt;=0.4,C4&lt;=0.6),"moderate",AND(C4&gt;=0.6,C4&lt;=0.8),"good",AND(C4&gt;=0.8,C4&lt;=1),"very good")</f>
+        <v>moderate</v>
+      </c>
+      <c r="H4" s="2" t="str" cm="1">
+        <f t="array" ref="H4">_xlfn.IFS(AND(D4&gt;=0.4,D4&lt;=0.6),"moderate",AND(D4&gt;=0.6,D4&lt;=0.8),"good",AND(D4&gt;=0.8,D4&lt;=1),"very good")</f>
+        <v>moderate</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="13">
+        <v>0.69</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.71</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" s="2" t="str" cm="1">
+        <f t="array" ref="F5">_xlfn.IFS(AND(B5&gt;=0.4,B5&lt;=0.6),"moderate",AND(B5&gt;=0.6,B5&lt;=0.8),"good",AND(B5&gt;=0.8,B5&lt;=1),"very good")</f>
+        <v>good</v>
+      </c>
+      <c r="G5" s="2" t="str" cm="1">
+        <f t="array" ref="G5">_xlfn.IFS(AND(C5&gt;=0.4,C5&lt;=0.6),"moderate",AND(C5&gt;=0.6,C5&lt;=0.8),"good",AND(C5&gt;=0.8,C5&lt;=1),"very good")</f>
+        <v>good</v>
+      </c>
+      <c r="H5" s="2" t="str" cm="1">
+        <f t="array" ref="H5">_xlfn.IFS(AND(D5&gt;=0.4,D5&lt;=0.6),"moderate",AND(D5&gt;=0.6,D5&lt;=0.8),"good",AND(D5&gt;=0.8,D5&lt;=1),"very good",AND(D5&gt;=0,D5&lt;=0.2),"poor")</f>
+        <v>poor</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="13">
+        <v>0.69</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0.64</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.62</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" s="2" t="str" cm="1">
+        <f t="array" ref="F6">_xlfn.IFS(AND(B6&gt;=0.4,B6&lt;=0.6),"moderate",AND(B6&gt;=0.6,B6&lt;=0.8),"good",AND(B6&gt;=0.8,B6&lt;=1),"very good")</f>
+        <v>good</v>
+      </c>
+      <c r="G6" s="2" t="str" cm="1">
+        <f t="array" ref="G6">_xlfn.IFS(AND(C6&gt;=0.4,C6&lt;=0.6),"moderate",AND(C6&gt;=0.6,C6&lt;=0.8),"good",AND(C6&gt;=0.8,C6&lt;=1),"very good")</f>
+        <v>good</v>
+      </c>
+      <c r="H6" s="2" t="str" cm="1">
+        <f t="array" ref="H6">_xlfn.IFS(AND(D6&gt;=0.4,D6&lt;=0.6),"moderate",AND(D6&gt;=0.6,D6&lt;=0.8),"good",AND(D6&gt;=0.8,D6&lt;=1),"very good")</f>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.89</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0.68</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="2" t="str" cm="1">
+        <f t="array" ref="F7">_xlfn.IFS(AND(B7&gt;=0.4,B7&lt;=0.6),"moderate",AND(B7&gt;=0.6,B7&lt;=0.8),"good",AND(B7&gt;=0.8,B7&lt;=1),"very good")</f>
+        <v>very good</v>
+      </c>
+      <c r="G7" s="2" t="str" cm="1">
+        <f t="array" ref="G7">_xlfn.IFS(AND(C7&gt;=0.4,C7&lt;=0.6),"moderate",AND(C7&gt;=0.6,C7&lt;=0.8),"good",AND(C7&gt;=0.8,C7&lt;=1),"very good")</f>
+        <v>very good</v>
+      </c>
+      <c r="H7" s="2" t="str" cm="1">
+        <f t="array" ref="H7">_xlfn.IFS(AND(D7&gt;=0.4,D7&lt;=0.6),"moderate",AND(D7&gt;=0.6,D7&lt;=0.8),"good",AND(D7&gt;=0.8,D7&lt;=1),"very good")</f>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="13">
+        <v>0.82</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.88</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" s="2" t="str" cm="1">
+        <f t="array" ref="F8">_xlfn.IFS(AND(B8&gt;=0.4,B8&lt;=0.6),"moderate",AND(B8&gt;=0.6,B8&lt;=0.8),"good",AND(B8&gt;=0.8,B8&lt;=1),"very good")</f>
+        <v>very good</v>
+      </c>
+      <c r="G8" s="2" t="str" cm="1">
+        <f t="array" ref="G8">_xlfn.IFS(AND(C8&gt;=0.4,C8&lt;=0.6),"moderate",AND(C8&gt;=0.6,C8&lt;=0.8),"good",AND(C8&gt;=0.8,C8&lt;=1),"very good")</f>
+        <v>very good</v>
+      </c>
+      <c r="H8" s="2" t="str" cm="1">
+        <f t="array" ref="H8">_xlfn.IFS(AND(D8&gt;=0.4,D8&lt;=0.6),"moderate",AND(D8&gt;=0.6,D8&lt;=0.8),"good",AND(D8&gt;=0.8,D8&lt;=1),"very good")</f>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.81</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0.69</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9" s="2" t="str" cm="1">
+        <f t="array" ref="F9">_xlfn.IFS(AND(B9&gt;=0.4,B9&lt;=0.6),"moderate",AND(B9&gt;=0.6,B9&lt;=0.8),"good",AND(B9&gt;=0.8,B9&lt;=1),"very good")</f>
+        <v>good</v>
+      </c>
+      <c r="G9" s="2" t="str" cm="1">
+        <f t="array" ref="G9">_xlfn.IFS(AND(C9&gt;=0.4,C9&lt;=0.6),"moderate",AND(C9&gt;=0.6,C9&lt;=0.8),"good",AND(C9&gt;=0.8,C9&lt;=1),"very good")</f>
+        <v>very good</v>
+      </c>
+      <c r="H9" s="2" t="str" cm="1">
+        <f t="array" ref="H9">_xlfn.IFS(AND(D9&gt;=0.4,D9&lt;=0.6),"moderate",AND(D9&gt;=0.6,D9&lt;=0.8),"good",AND(D9&gt;=0.8,D9&lt;=1),"very good")</f>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="13">
+        <v>0.89</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0.83</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F10" s="2" t="str" cm="1">
+        <f t="array" ref="F10">_xlfn.IFS(AND(B10&gt;=0.4,B10&lt;=0.6),"moderate",AND(B10&gt;=0.6,B10&lt;=0.8),"good",AND(B10&gt;=0.8,B10&lt;=1),"very good")</f>
+        <v>very good</v>
+      </c>
+      <c r="G10" s="2" t="str" cm="1">
+        <f t="array" ref="G10">_xlfn.IFS(AND(C10&gt;=0.4,C10&lt;=0.6),"moderate",AND(C10&gt;=0.6,C10&lt;=0.8),"good",AND(C10&gt;=0.8,C10&lt;=1),"very good")</f>
+        <v>very good</v>
+      </c>
+      <c r="H10" s="2" t="str" cm="1">
+        <f t="array" ref="H10">_xlfn.IFS(AND(D10&gt;=0.4,D10&lt;=0.6),"moderate",AND(D10&gt;=0.6,D10&lt;=0.8),"good",AND(D10&gt;=0.8,D10&lt;=1),"very good",AND(D10&gt;=0,D10&lt;=0.2),"poor")</f>
+        <v>poor</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="14">
+        <v>0.66</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" s="2" t="str" cm="1">
+        <f t="array" ref="F11">_xlfn.IFS(AND(B11&gt;=0.4,B11&lt;=0.6),"moderate",AND(B11&gt;=0.6,B11&lt;=0.8),"good",AND(B11&gt;=0.8,B11&lt;=1),"very good")</f>
+        <v>good</v>
+      </c>
+      <c r="G11" s="2" t="str" cm="1">
+        <f t="array" ref="G11">_xlfn.IFS(AND(C11&gt;=0.4,C11&lt;=0.6),"moderate",AND(C11&gt;=0.6,C11&lt;=0.8),"good",AND(C11&gt;=0.8,C11&lt;=1),"very good")</f>
+        <v>good</v>
+      </c>
+      <c r="H11" s="2" t="str" cm="1">
+        <f t="array" ref="H11">_xlfn.IFS(AND(D11&gt;=0.4,D11&lt;=0.6),"moderate",AND(D11&gt;=0.6,D11&lt;=0.8),"good",AND(D11&gt;=0.8,D11&lt;=1),"very good")</f>
+        <v>moderate</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="16"/>
+    </row>
+    <row r="48" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/Wearable Inertial Sensors for Exergames (post survey)_August 31, 2019_11.58.xlsx
+++ b/data/Wearable Inertial Sensors for Exergames (post survey)_August 31, 2019_11.58.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\wearable-jacket\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D3CCDD-0650-4191-8246-458E59BFDCE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E170883-8FC9-4DAF-9E7F-7F81D89D6A5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-6150" windowWidth="16440" windowHeight="28440" tabRatio="762" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="612" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wearable Inertial Sensors for E" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Calculation" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="Calpha" sheetId="6" r:id="rId6"/>
+    <sheet name="Calpha_normalized" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="165">
   <si>
     <t>StartDate</t>
   </si>
@@ -539,6 +541,18 @@
   </si>
   <si>
     <t>Transverse</t>
+  </si>
+  <si>
+    <t>Sum of variance</t>
+  </si>
+  <si>
+    <t>Number of items</t>
+  </si>
+  <si>
+    <t>Variance of total score</t>
+  </si>
+  <si>
+    <t>C alpha</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1090,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1127,6 +1141,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1255,7 +1272,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D550DD27-44E5-4154-99DE-405BF1320553}" type="CELLRANGE">
+                    <a:fld id="{5481A1F5-40FC-4BB1-BED1-E332D1461A6C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1288,7 +1305,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{47ABAF8D-44A3-467D-B751-DD4C1876E57A}" type="CELLRANGE">
+                    <a:fld id="{B15E3A1A-32C1-46D5-B0B2-11EDB296D58C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1322,7 +1339,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F2F4E765-9AB1-4FBF-A5EC-2A8BF8118024}" type="CELLRANGE">
+                    <a:fld id="{B8E510BB-C56D-430D-9150-9FA96640C120}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1356,7 +1373,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2F87902D-749D-4531-8AAB-7169096DA0CF}" type="CELLRANGE">
+                    <a:fld id="{84ACB996-1CE6-4926-8B9B-2F6AF806AD9F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1396,7 +1413,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EB8DAC7C-6D5E-4111-A2D6-5A9C5B406029}" type="CELLRANGE">
+                    <a:fld id="{95E82AE1-F149-4F6B-B515-E714F5EB8F1C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1429,7 +1446,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3A38F487-BE52-44BE-A703-CD0BD7843AEC}" type="CELLRANGE">
+                    <a:fld id="{12583016-FAA0-426E-AC6F-47F8A72C5077}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1463,7 +1480,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A0EE8F6B-7880-4766-8599-A106072DFCC0}" type="CELLRANGE">
+                    <a:fld id="{CA892C44-ABF4-4CB0-A6AD-BD871AAE72B7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1503,7 +1520,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BF7D7B2F-9D09-4AA6-B182-A7D3932DC1E3}" type="CELLRANGE">
+                    <a:fld id="{39AC322B-D414-4295-8519-5A2F4303F9CC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1536,7 +1553,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{011CD090-69D5-47C7-A101-C511E3C38C4F}" type="CELLRANGE">
+                    <a:fld id="{28C91C74-FBF4-4989-8BC5-11B61F5C5E90}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1570,7 +1587,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{28484FD1-27CB-4FDD-A953-1D75DE805E22}" type="CELLRANGE">
+                    <a:fld id="{6D157F1A-AE82-4D80-AF63-FDB3070D0D42}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1788,7 +1805,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8F1B05C9-2541-41C4-8E16-04DE0E842C2F}" type="CELLRANGE">
+                    <a:fld id="{AFA2F518-4E73-4CCA-AF9E-FC8E6949CAB3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1821,7 +1838,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F80B7EA6-A67A-4E05-8EE9-DEDE957D08B3}" type="CELLRANGE">
+                    <a:fld id="{A2295B06-0778-4F5C-87FB-50AC67FA05FE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1855,7 +1872,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{625CCFBB-5F68-4BB6-A246-5BBDA65A8DBF}" type="CELLRANGE">
+                    <a:fld id="{C3D1BA42-69E7-41FE-8D42-96DCB8334775}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1889,7 +1906,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5F37AC8B-F0DD-48FA-BC42-D1E3C2709F4C}" type="CELLRANGE">
+                    <a:fld id="{507609C0-DABB-4D5F-9E6B-8956172109A4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1923,7 +1940,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B34A344C-6AAE-483A-A6D1-D0277A6DA0C8}" type="CELLRANGE">
+                    <a:fld id="{F15C35E0-9CB0-4F0B-B3A5-0EFFA728D8E9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1957,7 +1974,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{28F266E0-28AA-42FE-A63B-8672019A38F1}" type="CELLRANGE">
+                    <a:fld id="{5691EE09-D80F-4D55-ABBD-7C47F6A0D4F4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1991,7 +2008,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6488EFBD-6DB9-435D-BC9E-7E8624EED891}" type="CELLRANGE">
+                    <a:fld id="{F29B75A5-7C0C-46DB-8A5A-C4893709D4F5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2025,7 +2042,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4D326A92-BB9F-4405-90AA-3A7208B45F3A}" type="CELLRANGE">
+                    <a:fld id="{5687B16E-F5D4-43D9-9F62-842D8F579CB8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2059,7 +2076,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{991C2A9D-1C0E-43D5-940E-4C08568436BE}" type="CELLRANGE">
+                    <a:fld id="{CF33A2BD-9DF5-4D9A-9079-C51E69E7B8E9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2093,7 +2110,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4FDCB594-005D-4111-B188-A98A758E8DBC}" type="CELLRANGE">
+                    <a:fld id="{EAA775FB-A97E-4591-848A-B694487BD740}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2320,7 +2337,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A9E3907D-E1E1-4672-8173-7A3BB3A7566C}" type="CELLRANGE">
+                    <a:fld id="{5D8ABEF1-1044-4A28-B994-3468E8E7337B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2354,7 +2371,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E15C636A-72E5-4890-BA85-3ECA3EE5DC74}" type="CELLRANGE">
+                    <a:fld id="{E39B32FF-DD7B-40B4-A1A9-4CC4ECE90B95}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2388,7 +2405,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E7EB7DF7-F278-4892-9A5A-5F2BD66AAD9C}" type="CELLRANGE">
+                    <a:fld id="{15ABA255-3FCA-4CC3-8B99-FBD94BB732A4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2422,7 +2439,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D041931B-91AB-4972-B6A8-23568E9CFE3A}" type="CELLRANGE">
+                    <a:fld id="{4A375B5B-AE04-4156-AE80-1054D476155B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2456,7 +2473,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A45C8A4A-B89C-4063-9FEA-1A5AAF6ECE8C}" type="CELLRANGE">
+                    <a:fld id="{DD8011A5-F5D3-49AC-A96B-87AFD59B7DDC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2490,7 +2507,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0BB6A4C7-61AE-43CF-8E4C-1714151A3DFF}" type="CELLRANGE">
+                    <a:fld id="{935CF20F-AF1E-4C17-B0D9-0C72BDB4B405}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2524,7 +2541,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8DB288A4-E231-4719-8673-5A32AF6ED1CC}" type="CELLRANGE">
+                    <a:fld id="{3C32470A-CCFB-4E88-AA3F-346D9CA31A62}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2558,7 +2575,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AE352B58-6220-451A-A9EB-203CC132CD46}" type="CELLRANGE">
+                    <a:fld id="{393D5326-F756-4C33-8267-A4FB4DEC0DE4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2592,7 +2609,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B69B24F9-645E-45C3-A428-0E30AC21D3D4}" type="CELLRANGE">
+                    <a:fld id="{F7BA365E-3A4D-4052-8F16-81207F8887AE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2626,7 +2643,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{532B9445-F880-4402-B25D-BB0E6846E97F}" type="CELLRANGE">
+                    <a:fld id="{BB72FF73-8F4E-46E5-A477-69E6FF7FFD9C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2845,9 +2862,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$AD$14:$AD$23</c:f>
@@ -2963,7 +2977,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B6449245-452A-47FA-A4FA-D99A406F710A}" type="CELLRANGE">
+                    <a:fld id="{D394C2EB-725A-4DD7-B358-5E9B3F3AC3AC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2997,7 +3011,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6FF33912-0838-4B0C-91CB-2C23FD76CAAE}" type="CELLRANGE">
+                    <a:fld id="{63EE8E22-F2B7-4DBD-B6B7-576E4F997DB2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3031,7 +3045,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DFA85A05-53C6-4EB6-AC45-DAB0F38F4624}" type="CELLRANGE">
+                    <a:fld id="{27C5B4FD-D8F2-47BD-B406-B86242653F79}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3065,7 +3079,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BD8AD668-51F8-4A83-A314-EC37AA32CA80}" type="CELLRANGE">
+                    <a:fld id="{F54459D6-4FE7-4674-9C6E-7847087D5BAC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3099,7 +3113,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E489E08B-9721-4B55-A2E0-BCD9FC5B7D25}" type="CELLRANGE">
+                    <a:fld id="{33D7CF64-C8BC-412A-BD9D-AD76ED0353D8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3133,7 +3147,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D0C771F8-0577-41C5-A9D6-9900123E06A6}" type="CELLRANGE">
+                    <a:fld id="{A3CC3A73-E23E-4284-9C38-EB7650F240A0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3167,7 +3181,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5D3CF8B4-847D-43E7-9615-6CAFBCC97209}" type="CELLRANGE">
+                    <a:fld id="{73A95AC8-5377-42CB-A397-8EDA1ECDB746}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3201,7 +3215,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6F05B5D3-3B32-47E0-9103-B4A64F39198E}" type="CELLRANGE">
+                    <a:fld id="{D2148BF8-5657-44B0-8AF8-B1A2ED08AF3F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3235,7 +3249,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0634576B-870D-4CC9-B9A2-E44E208271BF}" type="CELLRANGE">
+                    <a:fld id="{4AA76298-0186-45B4-B365-4EC71EE46A59}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3269,7 +3283,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8A082139-F554-4E5D-BBD9-F80B6DA2B238}" type="CELLRANGE">
+                    <a:fld id="{C7C4AF96-FCF4-44CA-82F5-694DA7E09096}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3502,7 +3516,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{31794CCC-243E-4BF5-98EB-C2E3E684DE19}" type="CELLRANGE">
+                    <a:fld id="{560B624F-8FEC-451E-BB6E-64F3ABAEE6F8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3536,7 +3550,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6D559C9F-7618-4B76-8A30-8191AD98AA4A}" type="CELLRANGE">
+                    <a:fld id="{D513796B-E259-4C3E-AC36-434E0A3459F3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3570,7 +3584,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AADE0312-0C9A-4CC8-A488-65AF59BAC7BC}" type="CELLRANGE">
+                    <a:fld id="{85290813-7C27-4111-B0C2-09EBB200BFCF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3604,7 +3618,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BB0BFA3D-5DD7-4062-8E84-3E4BA9F7AB49}" type="CELLRANGE">
+                    <a:fld id="{295CCC44-80F0-4859-870F-C2525DC3E064}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3638,7 +3652,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DFFF170E-8D43-4822-88FA-E4EAA22A4A95}" type="CELLRANGE">
+                    <a:fld id="{ACCB2E74-CF82-48CB-AE3C-3747732A8EEA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3672,7 +3686,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3EA41824-BC68-4011-BA79-16FB198D4386}" type="CELLRANGE">
+                    <a:fld id="{909CF359-8770-4321-B31B-1D1D582FF7E7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3706,7 +3720,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B8C84B8C-2E33-4F13-9FC2-F53A3D3D6982}" type="CELLRANGE">
+                    <a:fld id="{CB99D7E4-C287-4F7B-8671-6F0A35EAE19D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3740,7 +3754,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6A9D45F8-1A32-4B78-B998-F9D1880639FE}" type="CELLRANGE">
+                    <a:fld id="{03191791-3373-4163-8A40-AD5612E0D58C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3774,7 +3788,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A9A0C62E-3074-4428-AC94-41D4B4021C76}" type="CELLRANGE">
+                    <a:fld id="{656E7940-8B77-4513-ACE6-6DFBB44C9598}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3808,7 +3822,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FF71EBB2-43C5-4E5A-A105-1F42AC93CA37}" type="CELLRANGE">
+                    <a:fld id="{F9CC8229-1EAC-446F-833F-0ACE82015780}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4004,9 +4018,8 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -4173,7 +4186,1513 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.0375683617569776E-2"/>
+          <c:y val="3.9960035768951706E-2"/>
+          <c:w val="0.91924863276486046"/>
+          <c:h val="0.85023298111349432"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AS$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Neither agree nor disagree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.78368751651264E-3"/>
+                  <c:y val="-"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>12</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.4639479194187628E-2"/>
+                  <c:y val="-"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>12</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.4639479194186661E-3"/>
+                  <c:y val="3.0169273432644253E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>6</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="0;0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AR$6:$AR$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>q6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>q7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>q8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>q9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>q10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AS$6:$AS$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-5.882352941176471</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.882352941176471</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.9411764705882355</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1A7C-4B20-AECC-65E019728400}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AT$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Somewhat disagree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="0;0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AR$6:$AR$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>q6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>q7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>q8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>q9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>q10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AT$6:$AT$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-5.882352941176471</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-23.529411764705884</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-17.647058823529413</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-23.529411764705884</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-23.529411764705884</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-17.647058823529413</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1A7C-4B20-AECC-65E019728400}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AU$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Strongly disagree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001A-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001C-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="0;0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AR$6:$AR$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>q6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>q7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>q8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>q9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>q10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AU$6:$AU$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-76.470588235294116</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-64.705882352941174</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.882352941176471</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-64.705882352941174</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-70.588235294117652</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-76.470588235294116</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1A7C-4B20-AECC-65E019728400}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AV$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Neither agree nor disagree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AR$6:$AR$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>q6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>q7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>q8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>q9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>q10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AV$6:$AV$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.882352941176471</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.882352941176471</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9411764705882355</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1A7C-4B20-AECC-65E019728400}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AW$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Somewhat agree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001F-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000025-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:numFmt formatCode="0;0" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000027-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,#00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AR$6:$AR$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>q6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>q7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>q8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>q9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>q10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AW$6:$AW$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>47.058823529411768</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.647058823529413</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.764705882352942</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.411764705882351</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.764705882352942</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.529411764705884</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.764705882352942</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.882352941176471</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1A7C-4B20-AECC-65E019728400}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AX$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Strongly agree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000029-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002D-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002F-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000031-6A8F-42FF-A8BE-D6A4B5BA6B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="0;0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AR$6:$AR$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>q6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>q7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>q8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>q9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>q10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AX$6:$AX$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>35.294117647058826</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.352941176470594</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.882352941176471</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52.941176470588232</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.470588235294116</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88.235294117647058</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1A7C-4B20-AECC-65E019728400}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:overlap val="100"/>
+        <c:axId val="1895537647"/>
+        <c:axId val="1188426431"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1895537647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1188426431"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1188426431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.0%;0.0%" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1895537647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.0864995181387451E-2"/>
+          <c:y val="0.94388069132114694"/>
+          <c:w val="0.96141826021747279"/>
+          <c:h val="3.8590534670987428E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4718,6 +6237,511 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4758,16 +6782,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>296883</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>98961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>499110</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>387778</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>152301</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4790,8 +6814,88 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21063857" y="9144000"/>
-          <a:ext cx="8595360" cy="8816340"/>
+          <a:off x="17268701" y="7892143"/>
+          <a:ext cx="8552064" cy="8588729"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>355023</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>63336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{200E094C-DF7F-48D8-9282-66DE9500120D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>201644</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>122768</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4043F26D-6E39-4F83-8023-195627030DD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38433994" y="2783279"/>
+          <a:ext cx="8687553" cy="7730398"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6239,6 +8343,292 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE29"/>
@@ -8956,8 +11346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21BC5C2A-44C9-4F92-A0A1-E5355093D816}">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10294,10 +12684,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2DD505A-8013-4D07-9F70-FBD34166A50F}">
-  <dimension ref="B1:AL37"/>
+  <dimension ref="B1:AX37"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="AF72" sqref="AF72"/>
+    <sheetView topLeftCell="AN1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="BR16" sqref="BR16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10314,9 +12704,16 @@
     <col min="35" max="35" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="15" bestFit="1" customWidth="1"/>
     <col min="37" max="38" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18.42578125" customWidth="1"/>
+    <col min="47" max="47" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:50" x14ac:dyDescent="0.25">
       <c r="AE1" t="s">
         <v>104</v>
       </c>
@@ -10336,7 +12733,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>137</v>
       </c>
@@ -10389,7 +12786,7 @@
         <v>35.294117647058826</v>
       </c>
     </row>
-    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>4</v>
       </c>
@@ -10472,7 +12869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>4</v>
       </c>
@@ -10571,7 +12968,7 @@
         <v>82.352941176470594</v>
       </c>
     </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>5</v>
       </c>
@@ -10669,8 +13066,26 @@
       <c r="AJ5" s="3">
         <v>5.882352941176471</v>
       </c>
-    </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AS5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
@@ -10768,8 +13183,29 @@
       <c r="AJ6" s="3">
         <v>52.941176470588232</v>
       </c>
-    </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AR6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS6">
+        <v>-5.882352941176471</v>
+      </c>
+      <c r="AT6">
+        <v>-5.882352941176471</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>5.882352941176471</v>
+      </c>
+      <c r="AW6">
+        <v>47.058823529411768</v>
+      </c>
+      <c r="AX6">
+        <v>35.294117647058826</v>
+      </c>
+    </row>
+    <row r="7" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>3</v>
       </c>
@@ -10867,8 +13303,29 @@
       <c r="AJ7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AR7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>-23.529411764705884</v>
+      </c>
+      <c r="AU7">
+        <v>-76.470588235294116</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>4</v>
       </c>
@@ -10966,8 +13423,29 @@
       <c r="AJ8" s="3">
         <v>76.470588235294116</v>
       </c>
-    </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AR8" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>17.647058823529413</v>
+      </c>
+      <c r="AX8">
+        <v>82.352941176470594</v>
+      </c>
+    </row>
+    <row r="9" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>2</v>
       </c>
@@ -11019,8 +13497,29 @@
       <c r="AJ9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AR9" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>-17.647058823529413</v>
+      </c>
+      <c r="AU9">
+        <v>-64.705882352941174</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>11.764705882352942</v>
+      </c>
+      <c r="AX9">
+        <v>5.882352941176471</v>
+      </c>
+    </row>
+    <row r="10" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>5</v>
       </c>
@@ -11072,8 +13571,29 @@
       <c r="AJ10" s="3">
         <v>88.235294117647058</v>
       </c>
-    </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AR10" t="s">
+        <v>141</v>
+      </c>
+      <c r="AS10">
+        <v>-5.882352941176471</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>-5.882352941176471</v>
+      </c>
+      <c r="AV10">
+        <v>5.882352941176471</v>
+      </c>
+      <c r="AW10">
+        <v>29.411764705882351</v>
+      </c>
+      <c r="AX10">
+        <v>52.941176470588232</v>
+      </c>
+    </row>
+    <row r="11" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>4</v>
       </c>
@@ -11125,8 +13645,29 @@
       <c r="AJ11" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AR11" t="s">
+        <v>142</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>-23.529411764705884</v>
+      </c>
+      <c r="AU11">
+        <v>-64.705882352941174</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>11.764705882352942</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>5</v>
       </c>
@@ -11157,8 +13698,29 @@
       <c r="K12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AR12" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>23.529411764705884</v>
+      </c>
+      <c r="AX12">
+        <v>76.470588235294116</v>
+      </c>
+    </row>
+    <row r="13" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>4</v>
       </c>
@@ -11241,8 +13803,29 @@
       <c r="AJ13" s="7" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AR13" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS13">
+        <v>-2.9411764705882355</v>
+      </c>
+      <c r="AT13">
+        <v>-23.529411764705884</v>
+      </c>
+      <c r="AU13">
+        <v>-70.588235294117652</v>
+      </c>
+      <c r="AV13">
+        <v>2.9411764705882355</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>3</v>
       </c>
@@ -11331,8 +13914,29 @@
       <c r="AJ14" s="7">
         <v>35.294117647058826</v>
       </c>
-    </row>
-    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AR14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>11.764705882352942</v>
+      </c>
+      <c r="AX14">
+        <v>88.235294117647058</v>
+      </c>
+    </row>
+    <row r="15" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>4</v>
       </c>
@@ -11421,8 +14025,29 @@
       <c r="AJ15" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AR15" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>-17.647058823529413</v>
+      </c>
+      <c r="AU15">
+        <v>-76.470588235294116</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>5.882352941176471</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>5</v>
       </c>
@@ -11981,7 +14606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8268C1A4-9360-4D70-A585-6E201842CAD7}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -12431,4 +15056,2349 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{299EA028-CAA8-4A3F-B45A-F92A0115B860}">
+  <dimension ref="A1:L24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="10" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3">
+        <v>9</v>
+      </c>
+      <c r="J1" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="19" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>5</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <f>A3+C3+E3+G3+I3</f>
+        <v>23</v>
+      </c>
+      <c r="L3">
+        <f>B3+D3+F3+H3+J3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>5</v>
+      </c>
+      <c r="J4" s="3">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K19" si="0">A4+C4+E4+G4+I4</f>
+        <v>23</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L19" si="1">B4+D4+F4+H4+J4</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="3">
+        <v>5</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>5</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>5</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2</v>
+      </c>
+      <c r="I7" s="3">
+        <v>4</v>
+      </c>
+      <c r="J7" s="3">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>5</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>5</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
+        <v>5</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>5</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2</v>
+      </c>
+      <c r="I12" s="3">
+        <v>5</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>5</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>5</v>
+      </c>
+      <c r="J13" s="3">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>4</v>
+      </c>
+      <c r="D14" s="3">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2</v>
+      </c>
+      <c r="I14" s="3">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>5</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>5</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>5</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3">
+        <v>5</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>5</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>4</v>
+      </c>
+      <c r="H19" s="3">
+        <v>2</v>
+      </c>
+      <c r="I19" s="3">
+        <v>5</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>_xlfn.VAR.P(A3:A19)</f>
+        <v>0.69204152249134943</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ref="B20:J20" si="2">_xlfn.VAR.P(B3:B19)</f>
+        <v>0.17993079584775087</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>0.14532871972318348</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>1.5916955017301038</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>1.1211072664359862</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>0.94809688581314877</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>0.17993079584775085</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>0.34602076124567471</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>0.10380622837370243</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>0.58131487889273359</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>161</v>
+      </c>
+      <c r="K21">
+        <f>A20+C20+E20+G20+I20</f>
+        <v>2.2422145328719725</v>
+      </c>
+      <c r="L21">
+        <f>B20+D20+F20+H20+J20</f>
+        <v>3.6470588235294117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="L22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23">
+        <f>_xlfn.VAR.P(K3:K19)</f>
+        <v>3.7923875432525951</v>
+      </c>
+      <c r="L23">
+        <f>_xlfn.VAR.P(L3:L19)</f>
+        <v>6.9134948096885811</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>164</v>
+      </c>
+      <c r="K24">
+        <f>(K22/(K22-1))*(1-(K21/K23))</f>
+        <v>0.51094890510948898</v>
+      </c>
+      <c r="L24">
+        <f>(L22/(L22-1))*(1-(L21/L23))</f>
+        <v>0.5905905905905906</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F62C60-52E5-48D1-8EE3-DA050404E753}">
+  <dimension ref="A3:X25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>5</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <f>B3-1</f>
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <f>5-C3</f>
+        <v>4</v>
+      </c>
+      <c r="P3">
+        <f>D3-1</f>
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <f>5-E3</f>
+        <v>4</v>
+      </c>
+      <c r="R3">
+        <f>F3-1</f>
+        <v>4</v>
+      </c>
+      <c r="S3">
+        <f>5-G3</f>
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <f>H3-1</f>
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <f>5-I3</f>
+        <v>4</v>
+      </c>
+      <c r="V3">
+        <f>J3-1</f>
+        <v>4</v>
+      </c>
+      <c r="W3">
+        <f>5-K3</f>
+        <v>4</v>
+      </c>
+      <c r="X3">
+        <f>SUM(N3:W3)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>5</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>5</v>
+      </c>
+      <c r="K4" s="3">
+        <v>2</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N19" si="0">B4-1</f>
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O19" si="1">5-C4</f>
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P19" si="2">D4-1</f>
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q19" si="3">5-E4</f>
+        <v>4</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:R19" si="4">F4-1</f>
+        <v>3</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S4:S19" si="5">5-G4</f>
+        <v>4</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T19" si="6">H4-1</f>
+        <v>4</v>
+      </c>
+      <c r="U4">
+        <f t="shared" ref="U4:U19" si="7">5-I4</f>
+        <v>4</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:V19" si="8">J4-1</f>
+        <v>4</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:W19" si="9">5-K4</f>
+        <v>3</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ref="X4:X19" si="10">SUM(N4:W4)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>5</v>
+      </c>
+      <c r="I5" s="3">
+        <v>3</v>
+      </c>
+      <c r="J5" s="3">
+        <v>5</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="10"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>5</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>5</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3">
+        <v>5</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2</v>
+      </c>
+      <c r="J7" s="3">
+        <v>4</v>
+      </c>
+      <c r="K7" s="3">
+        <v>4</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="10"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8">
+        <v>6</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="10"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9">
+        <v>7</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="10"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10">
+        <v>8</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>5</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>5</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3">
+        <v>5</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11">
+        <v>9</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="10"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>5</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2</v>
+      </c>
+      <c r="J12" s="3">
+        <v>5</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="10"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>5</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2</v>
+      </c>
+      <c r="H13" s="3">
+        <v>5</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
+        <v>5</v>
+      </c>
+      <c r="K13" s="3">
+        <v>2</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13">
+        <v>11</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="10"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2</v>
+      </c>
+      <c r="H14" s="3">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2</v>
+      </c>
+      <c r="J14" s="3">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>2</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14">
+        <v>12</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="10"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>5</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15">
+        <v>13</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="10"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>5</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>5</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
+        <v>5</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
+        <v>5</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16">
+        <v>14</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17">
+        <v>15</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="10"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18">
+        <v>16</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="10"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>5</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
+        <v>4</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2</v>
+      </c>
+      <c r="J19" s="3">
+        <v>5</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19">
+        <v>17</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="10"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N20">
+        <f>_xlfn.VAR.P(N3:N19)</f>
+        <v>0.69204152249134943</v>
+      </c>
+      <c r="O20">
+        <f t="shared" ref="O20:W20" si="11">_xlfn.VAR.P(O3:O19)</f>
+        <v>0.17993079584775087</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="11"/>
+        <v>0.14532871972318334</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="11"/>
+        <v>1.5916955017301038</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="11"/>
+        <v>1.1211072664359862</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="11"/>
+        <v>0.94809688581314877</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="11"/>
+        <v>0.17993079584775087</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="11"/>
+        <v>0.34602076124567471</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="11"/>
+        <v>0.1038062283737024</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="11"/>
+        <v>0.58131487889273359</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X22">
+        <f>SUM(N20:W20)</f>
+        <v>5.8892733564013842</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X23">
+        <f>_xlfn.VAR.P(X3:X19)</f>
+        <v>16.484429065743946</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X25">
+        <f>(10/(10-1))*(1-(X22/X23))</f>
+        <v>0.71415243959324581</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Wearable Inertial Sensors for Exergames (post survey)_August 31, 2019_11.58.xlsx
+++ b/data/Wearable Inertial Sensors for Exergames (post survey)_August 31, 2019_11.58.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\wearable-jacket\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E170883-8FC9-4DAF-9E7F-7F81D89D6A5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF11F825-D8E2-4B4D-B1AF-CA3F00884BBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="612" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="175">
   <si>
     <t>StartDate</t>
   </si>
@@ -553,6 +553,36 @@
   </si>
   <si>
     <t>C alpha</t>
+  </si>
+  <si>
+    <t>SID</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Sum of scores</t>
+  </si>
+  <si>
+    <t>Var of scores</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1120,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1144,6 +1174,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1272,7 +1305,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5481A1F5-40FC-4BB1-BED1-E332D1461A6C}" type="CELLRANGE">
+                    <a:fld id="{0EE18808-2F9A-4EBC-80A2-5AB9E45E94AA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1305,7 +1338,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B15E3A1A-32C1-46D5-B0B2-11EDB296D58C}" type="CELLRANGE">
+                    <a:fld id="{7EF09159-3539-4327-9370-ACCC93FF1C53}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1339,7 +1372,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B8E510BB-C56D-430D-9150-9FA96640C120}" type="CELLRANGE">
+                    <a:fld id="{430ACAF1-286A-4DBB-A307-D45568CAAE81}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1373,7 +1406,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{84ACB996-1CE6-4926-8B9B-2F6AF806AD9F}" type="CELLRANGE">
+                    <a:fld id="{73EF237C-E46D-49FB-8005-71B3F0E2B90E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1413,7 +1446,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{95E82AE1-F149-4F6B-B515-E714F5EB8F1C}" type="CELLRANGE">
+                    <a:fld id="{2DC3080C-CB4C-427E-B5A3-5C212209E818}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1446,7 +1479,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{12583016-FAA0-426E-AC6F-47F8A72C5077}" type="CELLRANGE">
+                    <a:fld id="{DA240189-E3B8-4BE0-8F76-3856F7FB18E4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1480,7 +1513,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CA892C44-ABF4-4CB0-A6AD-BD871AAE72B7}" type="CELLRANGE">
+                    <a:fld id="{68521C6F-03C5-42F3-B34B-A4A65014C442}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1520,7 +1553,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{39AC322B-D414-4295-8519-5A2F4303F9CC}" type="CELLRANGE">
+                    <a:fld id="{055E07E0-8347-425D-A3FC-D54402F68DFE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1553,7 +1586,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{28C91C74-FBF4-4989-8BC5-11B61F5C5E90}" type="CELLRANGE">
+                    <a:fld id="{0AFF8321-1931-4F1D-BE13-C7C2D832A56B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1587,7 +1620,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6D157F1A-AE82-4D80-AF63-FDB3070D0D42}" type="CELLRANGE">
+                    <a:fld id="{532173A4-C7B3-45E7-8B57-26DDCEFFB499}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1805,7 +1838,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AFA2F518-4E73-4CCA-AF9E-FC8E6949CAB3}" type="CELLRANGE">
+                    <a:fld id="{DE9E62CD-FC3B-498C-B4F7-1416DA691BCF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1838,7 +1871,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A2295B06-0778-4F5C-87FB-50AC67FA05FE}" type="CELLRANGE">
+                    <a:fld id="{B35974E9-ACA2-4C5A-9C6A-4009B8DD35EA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1872,7 +1905,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C3D1BA42-69E7-41FE-8D42-96DCB8334775}" type="CELLRANGE">
+                    <a:fld id="{6FF9F3A2-AAEF-4075-8974-B19B5E7C39E3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1906,7 +1939,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{507609C0-DABB-4D5F-9E6B-8956172109A4}" type="CELLRANGE">
+                    <a:fld id="{23116A68-313B-423C-94D5-1835928376BA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1940,7 +1973,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F15C35E0-9CB0-4F0B-B3A5-0EFFA728D8E9}" type="CELLRANGE">
+                    <a:fld id="{CB710C7B-E5A3-452B-9CD3-532F61038CA2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1974,7 +2007,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5691EE09-D80F-4D55-ABBD-7C47F6A0D4F4}" type="CELLRANGE">
+                    <a:fld id="{CDCA02FE-BA9C-42A3-A79B-121B990E7C83}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2008,7 +2041,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F29B75A5-7C0C-46DB-8A5A-C4893709D4F5}" type="CELLRANGE">
+                    <a:fld id="{57293735-A599-480A-8161-F3C1AF6FCDA5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2042,7 +2075,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5687B16E-F5D4-43D9-9F62-842D8F579CB8}" type="CELLRANGE">
+                    <a:fld id="{69FBE8F8-5C2A-406A-A27F-FE20DF8C10FE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2076,7 +2109,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CF33A2BD-9DF5-4D9A-9079-C51E69E7B8E9}" type="CELLRANGE">
+                    <a:fld id="{1647A1F7-CC1F-4375-BB9B-28FFE09F65AD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2110,7 +2143,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EAA775FB-A97E-4591-848A-B694487BD740}" type="CELLRANGE">
+                    <a:fld id="{8788A963-F285-4868-B4DD-9DC898E52864}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2337,7 +2370,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5D8ABEF1-1044-4A28-B994-3468E8E7337B}" type="CELLRANGE">
+                    <a:fld id="{3BD1EEF2-2745-45E3-AFE3-4B6BFA076509}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2371,7 +2404,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E39B32FF-DD7B-40B4-A1A9-4CC4ECE90B95}" type="CELLRANGE">
+                    <a:fld id="{553864B7-533D-47CD-9C9C-56616163EEFD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2405,7 +2438,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{15ABA255-3FCA-4CC3-8B99-FBD94BB732A4}" type="CELLRANGE">
+                    <a:fld id="{57306957-B7B7-4F09-A25B-9C5F1FD74FB9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2439,7 +2472,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4A375B5B-AE04-4156-AE80-1054D476155B}" type="CELLRANGE">
+                    <a:fld id="{EA8C31DD-5694-476F-BB2B-64D1C98CECD1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2473,7 +2506,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DD8011A5-F5D3-49AC-A96B-87AFD59B7DDC}" type="CELLRANGE">
+                    <a:fld id="{B9B49668-81D0-41E6-8300-5D8051322150}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2507,7 +2540,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{935CF20F-AF1E-4C17-B0D9-0C72BDB4B405}" type="CELLRANGE">
+                    <a:fld id="{AD280660-8009-449F-836B-4AC10E1E6C04}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2541,7 +2574,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3C32470A-CCFB-4E88-AA3F-346D9CA31A62}" type="CELLRANGE">
+                    <a:fld id="{DF4FA372-8ED5-45BC-BBD8-4FAE20A0AE4B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2575,7 +2608,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{393D5326-F756-4C33-8267-A4FB4DEC0DE4}" type="CELLRANGE">
+                    <a:fld id="{7F35CB66-412D-47E5-A5C9-BCBE59B96EB6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2609,7 +2642,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F7BA365E-3A4D-4052-8F16-81207F8887AE}" type="CELLRANGE">
+                    <a:fld id="{A6C9F675-9FD4-4AA6-A1E7-C0D241B575F6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2643,7 +2676,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BB72FF73-8F4E-46E5-A477-69E6FF7FFD9C}" type="CELLRANGE">
+                    <a:fld id="{2F1D3B5D-362A-4032-B5D4-79BB62294558}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2977,7 +3010,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D394C2EB-725A-4DD7-B358-5E9B3F3AC3AC}" type="CELLRANGE">
+                    <a:fld id="{72FBFEC3-7771-4536-842E-5A084DA281E2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3011,7 +3044,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{63EE8E22-F2B7-4DBD-B6B7-576E4F997DB2}" type="CELLRANGE">
+                    <a:fld id="{5D58C99F-C2BD-4576-BB1E-9816C0B6B4E8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3045,7 +3078,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{27C5B4FD-D8F2-47BD-B406-B86242653F79}" type="CELLRANGE">
+                    <a:fld id="{1B6F112B-86CC-4573-909B-36F83EBB5293}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3079,7 +3112,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F54459D6-4FE7-4674-9C6E-7847087D5BAC}" type="CELLRANGE">
+                    <a:fld id="{424285C5-F7D6-4B10-B9D5-D292FC53C554}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3113,7 +3146,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{33D7CF64-C8BC-412A-BD9D-AD76ED0353D8}" type="CELLRANGE">
+                    <a:fld id="{D23FAFC4-956A-482A-8C9C-44917C28CD3F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3147,7 +3180,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A3CC3A73-E23E-4284-9C38-EB7650F240A0}" type="CELLRANGE">
+                    <a:fld id="{428FF211-1B59-4E79-A384-7987E8E951BE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3181,7 +3214,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{73A95AC8-5377-42CB-A397-8EDA1ECDB746}" type="CELLRANGE">
+                    <a:fld id="{D84AFA1D-EDF4-43BC-84D2-A5E94441706E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3215,7 +3248,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D2148BF8-5657-44B0-8AF8-B1A2ED08AF3F}" type="CELLRANGE">
+                    <a:fld id="{EAE99573-3B57-4021-A063-66B517EF1114}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3249,7 +3282,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4AA76298-0186-45B4-B365-4EC71EE46A59}" type="CELLRANGE">
+                    <a:fld id="{5B3B4728-FB1D-4122-B95C-AFEF3DE483DA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3283,7 +3316,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C7C4AF96-FCF4-44CA-82F5-694DA7E09096}" type="CELLRANGE">
+                    <a:fld id="{BE70C978-4873-484E-B6C1-0A48F2171FB6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3516,7 +3549,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{560B624F-8FEC-451E-BB6E-64F3ABAEE6F8}" type="CELLRANGE">
+                    <a:fld id="{07C887BA-733C-4A19-A5CD-9C7C8605602D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3550,7 +3583,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D513796B-E259-4C3E-AC36-434E0A3459F3}" type="CELLRANGE">
+                    <a:fld id="{9BA4C6EB-1CEF-4285-9B52-61E469E96B8F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3584,7 +3617,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{85290813-7C27-4111-B0C2-09EBB200BFCF}" type="CELLRANGE">
+                    <a:fld id="{B431E305-2443-496D-9F82-86648684E24F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3618,7 +3651,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{295CCC44-80F0-4859-870F-C2525DC3E064}" type="CELLRANGE">
+                    <a:fld id="{471B020D-82A3-4F20-B572-73D289D59AEE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3652,7 +3685,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ACCB2E74-CF82-48CB-AE3C-3747732A8EEA}" type="CELLRANGE">
+                    <a:fld id="{17BA4E8A-CC2A-4DFD-9B55-EA627A90830B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3686,7 +3719,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{909CF359-8770-4321-B31B-1D1D582FF7E7}" type="CELLRANGE">
+                    <a:fld id="{E9AE5BE1-4F88-455E-9C4E-479296A571B2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3720,7 +3753,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CB99D7E4-C287-4F7B-8671-6F0A35EAE19D}" type="CELLRANGE">
+                    <a:fld id="{F47326D2-D875-4770-88CE-07804168A4C9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3754,7 +3787,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{03191791-3373-4163-8A40-AD5612E0D58C}" type="CELLRANGE">
+                    <a:fld id="{2DE277FE-4F62-4466-9F31-6FFBF5F7CA1F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3788,7 +3821,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{656E7940-8B77-4513-ACE6-6DFBB44C9598}" type="CELLRANGE">
+                    <a:fld id="{44EA7E48-6F8A-497B-B34F-B383DE80A765}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3822,7 +3855,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F9CC8229-1EAC-446F-833F-0ACE82015780}" type="CELLRANGE">
+                    <a:fld id="{B3D9C25C-5A14-4ECF-9F1A-59F8231DFEC6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4211,7 +4244,7 @@
           <c:x val="4.0375683617569776E-2"/>
           <c:y val="3.9960035768951706E-2"/>
           <c:w val="0.91924863276486046"/>
-          <c:h val="0.85023298111349432"/>
+          <c:h val="0.86504357124013098"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -4248,7 +4281,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="8.78368751651264E-3"/>
-                  <c:y val="-"/>
+                  <c:y val="0"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -4312,7 +4345,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="1.4639479194187628E-2"/>
-                  <c:y val="-"/>
+                  <c:y val="0"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -4510,7 +4543,7 @@
             <c:numRef>
               <c:f>Sheet1!$AS$6:$AS$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>-5.882352941176471</c:v>
@@ -4711,7 +4744,7 @@
             <c:numRef>
               <c:f>Sheet1!$AT$6:$AT$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>-5.882352941176471</c:v>
@@ -4912,7 +4945,7 @@
             <c:numRef>
               <c:f>Sheet1!$AU$6:$AU$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5022,7 +5055,7 @@
             <c:numRef>
               <c:f>Sheet1!$AV$6:$AV$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>5.882352941176471</c:v>
@@ -5243,7 +5276,7 @@
             <c:numRef>
               <c:f>Sheet1!$AW$6:$AW$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>47.058823529411768</c:v>
@@ -5444,7 +5477,7 @@
             <c:numRef>
               <c:f>Sheet1!$AX$6:$AX$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>35.294117647058826</c:v>
@@ -5576,8 +5609,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.0864995181387451E-2"/>
-          <c:y val="0.94388069132114694"/>
+          <c:x val="2.0864946539388498E-2"/>
+          <c:y val="0.95210882418034071"/>
           <c:w val="0.96141826021747279"/>
           <c:h val="3.8590534670987428E-2"/>
         </c:manualLayout>
@@ -5652,6 +5685,881 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BW$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Strongly disagree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$BV$3:$BV$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>q6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>q7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>q8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>q9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>q10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BW$3:$BW$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-76.470588235294116</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-64.705882352941174</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.882352941176471</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-64.705882352941174</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-70.588235294117652</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-76.470588235294116</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9551-4833-9196-9C4451822367}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BX$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Somewhat disagree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$BV$3:$BV$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>q6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>q7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>q8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>q9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>q10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BX$3:$BX$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-5.882352941176471</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-23.529411764705884</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-17.647058823529413</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-23.529411764705884</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-23.529411764705884</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-17.647058823529413</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9551-4833-9196-9C4451822367}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BY$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Neither agree nor disagree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$BV$3:$BV$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>q6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>q7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>q8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>q9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>q10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BY$3:$BY$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-5.882352941176471</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.882352941176471</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.9411764705882355</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9551-4833-9196-9C4451822367}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BZ$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Neither agree nor disagree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$BV$3:$BV$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>q6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>q7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>q8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>q9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>q10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BZ$3:$BZ$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.882352941176471</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.882352941176471</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9411764705882355</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9551-4833-9196-9C4451822367}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CA$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Somewhat agree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$BV$3:$BV$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>q6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>q7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>q8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>q9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>q10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CA$3:$CA$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>47.058823529411768</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.647058823529413</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.764705882352942</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.411764705882351</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.764705882352942</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.529411764705884</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.764705882352942</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.882352941176471</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9551-4833-9196-9C4451822367}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CB$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Strongly agree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$BV$3:$BV$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>q6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>q7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>q8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>q9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>q10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CB$3:$CB$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>35.294117647058826</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.352941176470594</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.882352941176471</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52.941176470588232</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.470588235294116</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88.235294117647058</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9551-4833-9196-9C4451822367}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="650612735"/>
+        <c:axId val="649245951"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="650612735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="649245951"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="649245951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="650612735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5693,6 +6601,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6742,6 +7690,511 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6902,6 +8355,42 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>138544</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>50965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>395843</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>160812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF524EE4-98F9-47A1-8F31-8D79A627C1E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -11346,8 +12835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21BC5C2A-44C9-4F92-A0A1-E5355093D816}">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12684,10 +14173,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2DD505A-8013-4D07-9F70-FBD34166A50F}">
-  <dimension ref="B1:AX37"/>
+  <dimension ref="B1:CB37"/>
   <sheetViews>
-    <sheetView topLeftCell="AN1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="BR16" sqref="BR16"/>
+    <sheetView topLeftCell="N35" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="V81" sqref="V81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12711,9 +14200,16 @@
     <col min="48" max="48" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:80" x14ac:dyDescent="0.25">
       <c r="AE1" t="s">
         <v>104</v>
       </c>
@@ -12733,7 +14229,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>137</v>
       </c>
@@ -12785,8 +14281,27 @@
       <c r="AJ2" s="3">
         <v>35.294117647058826</v>
       </c>
-    </row>
-    <row r="3" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="BV2" s="2"/>
+      <c r="BW2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BX2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BY2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="BZ2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="CB2" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>4</v>
       </c>
@@ -12868,8 +14383,29 @@
       <c r="AJ3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="BV3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="BW3" s="20">
+        <v>0</v>
+      </c>
+      <c r="BX3" s="20">
+        <v>-5.882352941176471</v>
+      </c>
+      <c r="BY3" s="20">
+        <v>-5.882352941176471</v>
+      </c>
+      <c r="BZ3" s="20">
+        <v>5.882352941176471</v>
+      </c>
+      <c r="CA3" s="20">
+        <v>47.058823529411768</v>
+      </c>
+      <c r="CB3" s="20">
+        <v>35.294117647058826</v>
+      </c>
+    </row>
+    <row r="4" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>4</v>
       </c>
@@ -12967,8 +14503,29 @@
       <c r="AJ4" s="3">
         <v>82.352941176470594</v>
       </c>
-    </row>
-    <row r="5" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="BV4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="BW4" s="20">
+        <v>-76.470588235294116</v>
+      </c>
+      <c r="BX4" s="20">
+        <v>-23.529411764705884</v>
+      </c>
+      <c r="BY4" s="20">
+        <v>0</v>
+      </c>
+      <c r="BZ4" s="20">
+        <v>0</v>
+      </c>
+      <c r="CA4" s="20">
+        <v>0</v>
+      </c>
+      <c r="CB4" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>5</v>
       </c>
@@ -13066,26 +14623,48 @@
       <c r="AJ5" s="3">
         <v>5.882352941176471</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AT5" t="s">
+      <c r="AT5" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AU5" t="s">
+      <c r="AU5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="AV5" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AW5" t="s">
+      <c r="AW5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AX5" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="6" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="BV5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BW5" s="20">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="20">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="20">
+        <v>0</v>
+      </c>
+      <c r="BZ5" s="20">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="20">
+        <v>17.647058823529413</v>
+      </c>
+      <c r="CB5" s="20">
+        <v>82.352941176470594</v>
+      </c>
+    </row>
+    <row r="6" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
@@ -13183,29 +14762,50 @@
       <c r="AJ6" s="3">
         <v>52.941176470588232</v>
       </c>
-      <c r="AR6" t="s">
+      <c r="AR6" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="AS6">
+      <c r="AS6" s="20">
         <v>-5.882352941176471</v>
       </c>
-      <c r="AT6">
+      <c r="AT6" s="20">
         <v>-5.882352941176471</v>
       </c>
-      <c r="AU6">
+      <c r="AU6" s="20">
         <v>0</v>
       </c>
-      <c r="AV6">
+      <c r="AV6" s="20">
         <v>5.882352941176471</v>
       </c>
-      <c r="AW6">
+      <c r="AW6" s="20">
         <v>47.058823529411768</v>
       </c>
-      <c r="AX6">
+      <c r="AX6" s="20">
         <v>35.294117647058826</v>
       </c>
-    </row>
-    <row r="7" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="BV6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="BW6" s="20">
+        <v>-64.705882352941174</v>
+      </c>
+      <c r="BX6" s="20">
+        <v>-17.647058823529413</v>
+      </c>
+      <c r="BY6" s="20">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="20">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="20">
+        <v>11.764705882352942</v>
+      </c>
+      <c r="CB6" s="20">
+        <v>5.882352941176471</v>
+      </c>
+    </row>
+    <row r="7" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>3</v>
       </c>
@@ -13303,29 +14903,50 @@
       <c r="AJ7" s="3">
         <v>0</v>
       </c>
-      <c r="AR7" t="s">
+      <c r="AR7" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AS7">
+      <c r="AS7" s="20">
         <v>0</v>
       </c>
-      <c r="AT7">
+      <c r="AT7" s="20">
         <v>-23.529411764705884</v>
       </c>
-      <c r="AU7">
+      <c r="AU7" s="20">
         <v>-76.470588235294116</v>
       </c>
-      <c r="AV7">
+      <c r="AV7" s="20">
         <v>0</v>
       </c>
-      <c r="AW7">
+      <c r="AW7" s="20">
         <v>0</v>
       </c>
-      <c r="AX7">
+      <c r="AX7" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="BV7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="BW7" s="20">
+        <v>-5.882352941176471</v>
+      </c>
+      <c r="BX7" s="20">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="20">
+        <v>-5.882352941176471</v>
+      </c>
+      <c r="BZ7" s="20">
+        <v>5.882352941176471</v>
+      </c>
+      <c r="CA7" s="20">
+        <v>29.411764705882351</v>
+      </c>
+      <c r="CB7" s="20">
+        <v>52.941176470588232</v>
+      </c>
+    </row>
+    <row r="8" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>4</v>
       </c>
@@ -13423,29 +15044,50 @@
       <c r="AJ8" s="3">
         <v>76.470588235294116</v>
       </c>
-      <c r="AR8" t="s">
+      <c r="AR8" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="AS8">
+      <c r="AS8" s="20">
         <v>0</v>
       </c>
-      <c r="AT8">
+      <c r="AT8" s="20">
         <v>0</v>
       </c>
-      <c r="AU8">
+      <c r="AU8" s="20">
         <v>0</v>
       </c>
-      <c r="AV8">
+      <c r="AV8" s="20">
         <v>0</v>
       </c>
-      <c r="AW8">
+      <c r="AW8" s="20">
         <v>17.647058823529413</v>
       </c>
-      <c r="AX8">
+      <c r="AX8" s="20">
         <v>82.352941176470594</v>
       </c>
-    </row>
-    <row r="9" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="BV8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="BW8" s="20">
+        <v>-64.705882352941174</v>
+      </c>
+      <c r="BX8" s="20">
+        <v>-23.529411764705884</v>
+      </c>
+      <c r="BY8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="20">
+        <v>0</v>
+      </c>
+      <c r="CA8" s="20">
+        <v>11.764705882352942</v>
+      </c>
+      <c r="CB8" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>2</v>
       </c>
@@ -13497,29 +15139,50 @@
       <c r="AJ9" s="3">
         <v>0</v>
       </c>
-      <c r="AR9" t="s">
+      <c r="AR9" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="AS9">
+      <c r="AS9" s="20">
         <v>0</v>
       </c>
-      <c r="AT9">
+      <c r="AT9" s="20">
         <v>-17.647058823529413</v>
       </c>
-      <c r="AU9">
+      <c r="AU9" s="20">
         <v>-64.705882352941174</v>
       </c>
-      <c r="AV9">
+      <c r="AV9" s="20">
         <v>0</v>
       </c>
-      <c r="AW9">
+      <c r="AW9" s="20">
         <v>11.764705882352942</v>
       </c>
-      <c r="AX9">
+      <c r="AX9" s="20">
         <v>5.882352941176471</v>
       </c>
-    </row>
-    <row r="10" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="BV9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="BW9" s="20">
+        <v>0</v>
+      </c>
+      <c r="BX9" s="20">
+        <v>0</v>
+      </c>
+      <c r="BY9" s="20">
+        <v>0</v>
+      </c>
+      <c r="BZ9" s="20">
+        <v>0</v>
+      </c>
+      <c r="CA9" s="20">
+        <v>23.529411764705884</v>
+      </c>
+      <c r="CB9" s="20">
+        <v>76.470588235294116</v>
+      </c>
+    </row>
+    <row r="10" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>5</v>
       </c>
@@ -13571,29 +15234,50 @@
       <c r="AJ10" s="3">
         <v>88.235294117647058</v>
       </c>
-      <c r="AR10" t="s">
+      <c r="AR10" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AS10">
+      <c r="AS10" s="20">
         <v>-5.882352941176471</v>
       </c>
-      <c r="AT10">
+      <c r="AT10" s="20">
         <v>0</v>
       </c>
-      <c r="AU10">
+      <c r="AU10" s="20">
         <v>-5.882352941176471</v>
       </c>
-      <c r="AV10">
+      <c r="AV10" s="20">
         <v>5.882352941176471</v>
       </c>
-      <c r="AW10">
+      <c r="AW10" s="20">
         <v>29.411764705882351</v>
       </c>
-      <c r="AX10">
+      <c r="AX10" s="20">
         <v>52.941176470588232</v>
       </c>
-    </row>
-    <row r="11" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="BV10" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="BW10" s="20">
+        <v>-70.588235294117652</v>
+      </c>
+      <c r="BX10" s="20">
+        <v>-23.529411764705884</v>
+      </c>
+      <c r="BY10" s="20">
+        <v>-2.9411764705882355</v>
+      </c>
+      <c r="BZ10" s="20">
+        <v>2.9411764705882355</v>
+      </c>
+      <c r="CA10" s="20">
+        <v>0</v>
+      </c>
+      <c r="CB10" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>4</v>
       </c>
@@ -13645,29 +15329,50 @@
       <c r="AJ11" s="3">
         <v>0</v>
       </c>
-      <c r="AR11" t="s">
+      <c r="AR11" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="AS11">
+      <c r="AS11" s="20">
         <v>0</v>
       </c>
-      <c r="AT11">
+      <c r="AT11" s="20">
         <v>-23.529411764705884</v>
       </c>
-      <c r="AU11">
+      <c r="AU11" s="20">
         <v>-64.705882352941174</v>
       </c>
-      <c r="AV11">
+      <c r="AV11" s="20">
         <v>0</v>
       </c>
-      <c r="AW11">
+      <c r="AW11" s="20">
         <v>11.764705882352942</v>
       </c>
-      <c r="AX11">
+      <c r="AX11" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="BV11" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BW11" s="20">
+        <v>0</v>
+      </c>
+      <c r="BX11" s="20">
+        <v>0</v>
+      </c>
+      <c r="BY11" s="20">
+        <v>0</v>
+      </c>
+      <c r="BZ11" s="20">
+        <v>0</v>
+      </c>
+      <c r="CA11" s="20">
+        <v>11.764705882352942</v>
+      </c>
+      <c r="CB11" s="20">
+        <v>88.235294117647058</v>
+      </c>
+    </row>
+    <row r="12" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>5</v>
       </c>
@@ -13698,29 +15403,50 @@
       <c r="K12">
         <v>1</v>
       </c>
-      <c r="AR12" t="s">
+      <c r="AR12" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AS12">
+      <c r="AS12" s="20">
         <v>0</v>
       </c>
-      <c r="AT12">
+      <c r="AT12" s="20">
         <v>0</v>
       </c>
-      <c r="AU12">
+      <c r="AU12" s="20">
         <v>0</v>
       </c>
-      <c r="AV12">
+      <c r="AV12" s="20">
         <v>0</v>
       </c>
-      <c r="AW12">
+      <c r="AW12" s="20">
         <v>23.529411764705884</v>
       </c>
-      <c r="AX12">
+      <c r="AX12" s="20">
         <v>76.470588235294116</v>
       </c>
-    </row>
-    <row r="13" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="BV12" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BW12" s="20">
+        <v>-76.470588235294116</v>
+      </c>
+      <c r="BX12" s="20">
+        <v>-17.647058823529413</v>
+      </c>
+      <c r="BY12" s="20">
+        <v>0</v>
+      </c>
+      <c r="BZ12" s="20">
+        <v>0</v>
+      </c>
+      <c r="CA12" s="20">
+        <v>5.882352941176471</v>
+      </c>
+      <c r="CB12" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>4</v>
       </c>
@@ -13803,29 +15529,29 @@
       <c r="AJ13" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AR13" t="s">
+      <c r="AR13" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AS13">
+      <c r="AS13" s="20">
         <v>-2.9411764705882355</v>
       </c>
-      <c r="AT13">
+      <c r="AT13" s="20">
         <v>-23.529411764705884</v>
       </c>
-      <c r="AU13">
+      <c r="AU13" s="20">
         <v>-70.588235294117652</v>
       </c>
-      <c r="AV13">
+      <c r="AV13" s="20">
         <v>2.9411764705882355</v>
       </c>
-      <c r="AW13">
+      <c r="AW13" s="20">
         <v>0</v>
       </c>
-      <c r="AX13">
+      <c r="AX13" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>3</v>
       </c>
@@ -13914,29 +15640,29 @@
       <c r="AJ14" s="7">
         <v>35.294117647058826</v>
       </c>
-      <c r="AR14" t="s">
+      <c r="AR14" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="AS14">
+      <c r="AS14" s="20">
         <v>0</v>
       </c>
-      <c r="AT14">
+      <c r="AT14" s="20">
         <v>0</v>
       </c>
-      <c r="AU14">
+      <c r="AU14" s="20">
         <v>0</v>
       </c>
-      <c r="AV14">
+      <c r="AV14" s="20">
         <v>0</v>
       </c>
-      <c r="AW14">
+      <c r="AW14" s="20">
         <v>11.764705882352942</v>
       </c>
-      <c r="AX14">
+      <c r="AX14" s="20">
         <v>88.235294117647058</v>
       </c>
     </row>
-    <row r="15" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>4</v>
       </c>
@@ -14025,29 +15751,29 @@
       <c r="AJ15" s="7">
         <v>0</v>
       </c>
-      <c r="AR15" t="s">
+      <c r="AR15" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AS15">
+      <c r="AS15" s="20">
         <v>0</v>
       </c>
-      <c r="AT15">
+      <c r="AT15" s="20">
         <v>-17.647058823529413</v>
       </c>
-      <c r="AU15">
+      <c r="AU15" s="20">
         <v>-76.470588235294116</v>
       </c>
-      <c r="AV15">
+      <c r="AV15" s="20">
         <v>0</v>
       </c>
-      <c r="AW15">
+      <c r="AW15" s="20">
         <v>5.882352941176471</v>
       </c>
-      <c r="AX15">
+      <c r="AX15" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>5</v>
       </c>
@@ -14607,7 +16333,7 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15063,7 +16789,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15914,14 +17640,57 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F62C60-52E5-48D1-8EE3-DA050404E753}">
-  <dimension ref="A3:X25"/>
+  <dimension ref="A2:X25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="11.7109375" customWidth="1"/>
+    <col min="23" max="23" width="23.28515625" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>165</v>
+      </c>
+      <c r="N2" t="s">
+        <v>166</v>
+      </c>
+      <c r="O2" t="s">
+        <v>167</v>
+      </c>
+      <c r="P2" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>169</v>
+      </c>
+      <c r="R2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T2" t="s">
+        <v>171</v>
+      </c>
+      <c r="U2" t="s">
+        <v>172</v>
+      </c>
+      <c r="V2" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2" t="s">
+        <v>173</v>
+      </c>
+    </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
@@ -17334,6 +19103,9 @@
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>174</v>
+      </c>
       <c r="N20">
         <f>_xlfn.VAR.P(N3:N19)</f>
         <v>0.69204152249134943</v>
@@ -17376,29 +19148,42 @@
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W22" t="s">
+        <v>161</v>
+      </c>
       <c r="X22">
         <f>SUM(N20:W20)</f>
         <v>5.8892733564013842</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W23" t="s">
+        <v>163</v>
+      </c>
       <c r="X23">
         <f>_xlfn.VAR.P(X3:X19)</f>
         <v>16.484429065743946</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W24" t="s">
+        <v>162</v>
+      </c>
       <c r="X24">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W25" t="s">
+        <v>164</v>
+      </c>
       <c r="X25">
         <f>(10/(10-1))*(1-(X22/X23))</f>
         <v>0.71415243959324581</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Wearable Inertial Sensors for Exergames (post survey)_August 31, 2019_11.58.xlsx
+++ b/data/Wearable Inertial Sensors for Exergames (post survey)_August 31, 2019_11.58.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\wearable-jacket\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF11F825-D8E2-4B4D-B1AF-CA3F00884BBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E91DFA2-AE25-4A5D-8235-0F87EC7D2C1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="612" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="612" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wearable Inertial Sensors for E" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="175">
   <si>
     <t>StartDate</t>
   </si>
@@ -1120,7 +1120,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1163,13 +1163,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1305,7 +1299,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0EE18808-2F9A-4EBC-80A2-5AB9E45E94AA}" type="CELLRANGE">
+                    <a:fld id="{2D8AA33A-EC0A-429F-AE46-AFF1AF1FAC41}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1357,7 +1351,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1391,7 +1384,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1425,7 +1417,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1446,7 +1437,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2DC3080C-CB4C-427E-B5A3-5C212209E818}" type="CELLRANGE">
+                    <a:fld id="{E7E2E1CC-0F1F-4CFC-8DAA-061E1F359C82}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1498,7 +1489,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1532,7 +1522,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1553,7 +1542,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{055E07E0-8347-425D-A3FC-D54402F68DFE}" type="CELLRANGE">
+                    <a:fld id="{94A473F4-7B57-4D82-8A6D-8BCAA944247C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1605,7 +1594,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1639,7 +1627,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1871,7 +1858,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B35974E9-ACA2-4C5A-9C6A-4009B8DD35EA}" type="CELLRANGE">
+                    <a:fld id="{F062A901-5F23-471B-981B-C1438504A7D0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1924,7 +1911,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1939,7 +1925,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{23116A68-313B-423C-94D5-1835928376BA}" type="CELLRANGE">
+                    <a:fld id="{C0DA4C5E-4716-4584-AEDE-9B2B79545A4B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1973,7 +1959,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CB710C7B-E5A3-452B-9CD3-532F61038CA2}" type="CELLRANGE">
+                    <a:fld id="{6E335A81-4785-4BC1-803F-A7B8DB9E2960}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2007,7 +1993,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CDCA02FE-BA9C-42A3-A79B-121B990E7C83}" type="CELLRANGE">
+                    <a:fld id="{91474AA8-0CF9-49F7-B69B-0F0549C71379}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2060,7 +2046,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2075,7 +2060,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{69FBE8F8-5C2A-406A-A27F-FE20DF8C10FE}" type="CELLRANGE">
+                    <a:fld id="{F110C36C-248D-4470-BCAF-5AAFE010E5AC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2128,7 +2113,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2143,7 +2127,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8788A963-F285-4868-B4DD-9DC898E52864}" type="CELLRANGE">
+                    <a:fld id="{98AFD070-C1BB-40F1-B808-C4ACC2937B08}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2370,7 +2354,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3BD1EEF2-2745-45E3-AFE3-4B6BFA076509}" type="CELLRANGE">
+                    <a:fld id="{B5782981-BC1A-425E-86BF-97631E65260D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2404,7 +2388,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{553864B7-533D-47CD-9C9C-56616163EEFD}" type="CELLRANGE">
+                    <a:fld id="{7611FF54-3414-4524-ADE7-8B07F6BCA201}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2457,7 +2441,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2472,7 +2455,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EA8C31DD-5694-476F-BB2B-64D1C98CECD1}" type="CELLRANGE">
+                    <a:fld id="{CFB1CB13-D9BF-4EBD-BAEE-F68DE404FC27}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2525,7 +2508,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2540,7 +2522,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AD280660-8009-449F-836B-4AC10E1E6C04}" type="CELLRANGE">
+                    <a:fld id="{E632DF35-2833-4F6B-A766-46327B6939E8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2593,7 +2575,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2608,7 +2589,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7F35CB66-412D-47E5-A5C9-BCBE59B96EB6}" type="CELLRANGE">
+                    <a:fld id="{07A223A0-3D9F-40B0-AA3D-A0864926F00C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2661,7 +2642,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2676,7 +2656,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2F1D3B5D-362A-4032-B5D4-79BB62294558}" type="CELLRANGE">
+                    <a:fld id="{4FBB0C05-5646-46AB-8951-783A035F96CF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3010,7 +2990,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{72FBFEC3-7771-4536-842E-5A084DA281E2}" type="CELLRANGE">
+                    <a:fld id="{A5F59C8B-0D80-4351-954D-D2B93E52164C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3063,7 +3043,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3078,7 +3057,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1B6F112B-86CC-4573-909B-36F83EBB5293}" type="CELLRANGE">
+                    <a:fld id="{9FBAAE9A-F213-49B9-98A3-604F9EEA8D9D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3112,7 +3091,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{424285C5-F7D6-4B10-B9D5-D292FC53C554}" type="CELLRANGE">
+                    <a:fld id="{F84CB238-E347-4116-827A-49D74D9909E5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3146,7 +3125,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D23FAFC4-956A-482A-8C9C-44917C28CD3F}" type="CELLRANGE">
+                    <a:fld id="{7B2982FE-3188-4092-9798-2E3425A802D2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3180,7 +3159,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{428FF211-1B59-4E79-A384-7987E8E951BE}" type="CELLRANGE">
+                    <a:fld id="{F1C9D83E-E54C-44ED-84DA-63ECEB46D252}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3214,7 +3193,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D84AFA1D-EDF4-43BC-84D2-A5E94441706E}" type="CELLRANGE">
+                    <a:fld id="{70F0A7BE-1470-4378-98DB-540B02A6A54C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3267,7 +3246,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3282,7 +3260,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5B3B4728-FB1D-4122-B95C-AFEF3DE483DA}" type="CELLRANGE">
+                    <a:fld id="{44FA2339-97B8-4131-A94D-E54F70E92A0B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3316,7 +3294,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BE70C978-4873-484E-B6C1-0A48F2171FB6}" type="CELLRANGE">
+                    <a:fld id="{21432433-D2AF-4065-BE06-9F084B0D0821}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3549,7 +3527,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{07C887BA-733C-4A19-A5CD-9C7C8605602D}" type="CELLRANGE">
+                    <a:fld id="{D2016F2A-1CCC-41EB-900F-A0109B2FF0CA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3602,7 +3580,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3617,7 +3594,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B431E305-2443-496D-9F82-86648684E24F}" type="CELLRANGE">
+                    <a:fld id="{2DC2CC9F-0240-4C66-820C-A8595751C787}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3651,7 +3628,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{471B020D-82A3-4F20-B572-73D289D59AEE}" type="CELLRANGE">
+                    <a:fld id="{57D59CB8-2B6F-4939-BF68-107541CF17A5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3685,7 +3662,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{17BA4E8A-CC2A-4DFD-9B55-EA627A90830B}" type="CELLRANGE">
+                    <a:fld id="{AECD1BE4-856D-42D1-895E-16B8737C083F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3738,7 +3715,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3753,7 +3729,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F47326D2-D875-4770-88CE-07804168A4C9}" type="CELLRANGE">
+                    <a:fld id="{96DD96FA-1B6F-4929-AE98-CAC32C3B6F2D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3806,7 +3782,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3821,7 +3796,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{44EA7E48-6F8A-497B-B34F-B383DE80A765}" type="CELLRANGE">
+                    <a:fld id="{154C5446-C2A3-4C9E-BFB7-E230BE8027BE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3874,7 +3849,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -8613,716 +8587,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3BE8954-6F1C-40C3-B16D-94380C5768D5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="5400675"/>
-          <a:ext cx="381000" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47DA7031-ED66-4388-B827-C7AB08CB28D8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="5781675"/>
-          <a:ext cx="400050" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07C31B4D-19FD-4963-B653-D22A4BD48E2C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="6162675"/>
-          <a:ext cx="361950" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B81C5A1-732C-4FCB-86D0-D845D85EB13E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="6543675"/>
-          <a:ext cx="457200" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE371D02-2CC1-4C6B-998C-FAB9A60DB272}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="6924675"/>
-          <a:ext cx="457200" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78FACE58-E24C-45C5-8B58-CF93AAAB26A3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="7305675"/>
-          <a:ext cx="390525" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Picture 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2B958AB-BF7B-4BB9-8BEF-CE353753BFFB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="7686675"/>
-          <a:ext cx="409575" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Picture 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4BB989F-E2A1-4511-8A6B-3E92C1E8AF3B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="8067675"/>
-          <a:ext cx="371475" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Picture 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D52DA72D-0A6A-40A9-8D79-A593C8D59E25}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="8448675"/>
-          <a:ext cx="466725" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Picture 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D54F85AC-B3E7-4A4D-9FEE-17238ECF3C3A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="8829675"/>
-          <a:ext cx="466725" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -14386,22 +13650,22 @@
       <c r="BV3" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="BW3" s="20">
+      <c r="BW3" s="18">
         <v>0</v>
       </c>
-      <c r="BX3" s="20">
+      <c r="BX3" s="18">
         <v>-5.882352941176471</v>
       </c>
-      <c r="BY3" s="20">
+      <c r="BY3" s="18">
         <v>-5.882352941176471</v>
       </c>
-      <c r="BZ3" s="20">
+      <c r="BZ3" s="18">
         <v>5.882352941176471</v>
       </c>
-      <c r="CA3" s="20">
+      <c r="CA3" s="18">
         <v>47.058823529411768</v>
       </c>
-      <c r="CB3" s="20">
+      <c r="CB3" s="18">
         <v>35.294117647058826</v>
       </c>
     </row>
@@ -14506,22 +13770,22 @@
       <c r="BV4" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="BW4" s="20">
+      <c r="BW4" s="18">
         <v>-76.470588235294116</v>
       </c>
-      <c r="BX4" s="20">
+      <c r="BX4" s="18">
         <v>-23.529411764705884</v>
       </c>
-      <c r="BY4" s="20">
+      <c r="BY4" s="18">
         <v>0</v>
       </c>
-      <c r="BZ4" s="20">
+      <c r="BZ4" s="18">
         <v>0</v>
       </c>
-      <c r="CA4" s="20">
+      <c r="CA4" s="18">
         <v>0</v>
       </c>
-      <c r="CB4" s="20">
+      <c r="CB4" s="18">
         <v>0</v>
       </c>
     </row>
@@ -14645,22 +13909,22 @@
       <c r="BV5" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="BW5" s="20">
+      <c r="BW5" s="18">
         <v>0</v>
       </c>
-      <c r="BX5" s="20">
+      <c r="BX5" s="18">
         <v>0</v>
       </c>
-      <c r="BY5" s="20">
+      <c r="BY5" s="18">
         <v>0</v>
       </c>
-      <c r="BZ5" s="20">
+      <c r="BZ5" s="18">
         <v>0</v>
       </c>
-      <c r="CA5" s="20">
+      <c r="CA5" s="18">
         <v>17.647058823529413</v>
       </c>
-      <c r="CB5" s="20">
+      <c r="CB5" s="18">
         <v>82.352941176470594</v>
       </c>
     </row>
@@ -14765,43 +14029,43 @@
       <c r="AR6" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="AS6" s="20">
+      <c r="AS6" s="18">
         <v>-5.882352941176471</v>
       </c>
-      <c r="AT6" s="20">
+      <c r="AT6" s="18">
         <v>-5.882352941176471</v>
       </c>
-      <c r="AU6" s="20">
+      <c r="AU6" s="18">
         <v>0</v>
       </c>
-      <c r="AV6" s="20">
+      <c r="AV6" s="18">
         <v>5.882352941176471</v>
       </c>
-      <c r="AW6" s="20">
+      <c r="AW6" s="18">
         <v>47.058823529411768</v>
       </c>
-      <c r="AX6" s="20">
+      <c r="AX6" s="18">
         <v>35.294117647058826</v>
       </c>
       <c r="BV6" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="BW6" s="20">
+      <c r="BW6" s="18">
         <v>-64.705882352941174</v>
       </c>
-      <c r="BX6" s="20">
+      <c r="BX6" s="18">
         <v>-17.647058823529413</v>
       </c>
-      <c r="BY6" s="20">
+      <c r="BY6" s="18">
         <v>0</v>
       </c>
-      <c r="BZ6" s="20">
+      <c r="BZ6" s="18">
         <v>0</v>
       </c>
-      <c r="CA6" s="20">
+      <c r="CA6" s="18">
         <v>11.764705882352942</v>
       </c>
-      <c r="CB6" s="20">
+      <c r="CB6" s="18">
         <v>5.882352941176471</v>
       </c>
     </row>
@@ -14906,43 +14170,43 @@
       <c r="AR7" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AS7" s="20">
+      <c r="AS7" s="18">
         <v>0</v>
       </c>
-      <c r="AT7" s="20">
+      <c r="AT7" s="18">
         <v>-23.529411764705884</v>
       </c>
-      <c r="AU7" s="20">
+      <c r="AU7" s="18">
         <v>-76.470588235294116</v>
       </c>
-      <c r="AV7" s="20">
+      <c r="AV7" s="18">
         <v>0</v>
       </c>
-      <c r="AW7" s="20">
+      <c r="AW7" s="18">
         <v>0</v>
       </c>
-      <c r="AX7" s="20">
+      <c r="AX7" s="18">
         <v>0</v>
       </c>
       <c r="BV7" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="BW7" s="20">
+      <c r="BW7" s="18">
         <v>-5.882352941176471</v>
       </c>
-      <c r="BX7" s="20">
+      <c r="BX7" s="18">
         <v>0</v>
       </c>
-      <c r="BY7" s="20">
+      <c r="BY7" s="18">
         <v>-5.882352941176471</v>
       </c>
-      <c r="BZ7" s="20">
+      <c r="BZ7" s="18">
         <v>5.882352941176471</v>
       </c>
-      <c r="CA7" s="20">
+      <c r="CA7" s="18">
         <v>29.411764705882351</v>
       </c>
-      <c r="CB7" s="20">
+      <c r="CB7" s="18">
         <v>52.941176470588232</v>
       </c>
     </row>
@@ -15047,43 +14311,43 @@
       <c r="AR8" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="AS8" s="20">
+      <c r="AS8" s="18">
         <v>0</v>
       </c>
-      <c r="AT8" s="20">
+      <c r="AT8" s="18">
         <v>0</v>
       </c>
-      <c r="AU8" s="20">
+      <c r="AU8" s="18">
         <v>0</v>
       </c>
-      <c r="AV8" s="20">
+      <c r="AV8" s="18">
         <v>0</v>
       </c>
-      <c r="AW8" s="20">
+      <c r="AW8" s="18">
         <v>17.647058823529413</v>
       </c>
-      <c r="AX8" s="20">
+      <c r="AX8" s="18">
         <v>82.352941176470594</v>
       </c>
       <c r="BV8" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="BW8" s="20">
+      <c r="BW8" s="18">
         <v>-64.705882352941174</v>
       </c>
-      <c r="BX8" s="20">
+      <c r="BX8" s="18">
         <v>-23.529411764705884</v>
       </c>
-      <c r="BY8" s="20">
+      <c r="BY8" s="18">
         <v>0</v>
       </c>
-      <c r="BZ8" s="20">
+      <c r="BZ8" s="18">
         <v>0</v>
       </c>
-      <c r="CA8" s="20">
+      <c r="CA8" s="18">
         <v>11.764705882352942</v>
       </c>
-      <c r="CB8" s="20">
+      <c r="CB8" s="18">
         <v>0</v>
       </c>
     </row>
@@ -15142,43 +14406,43 @@
       <c r="AR9" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="AS9" s="20">
+      <c r="AS9" s="18">
         <v>0</v>
       </c>
-      <c r="AT9" s="20">
+      <c r="AT9" s="18">
         <v>-17.647058823529413</v>
       </c>
-      <c r="AU9" s="20">
+      <c r="AU9" s="18">
         <v>-64.705882352941174</v>
       </c>
-      <c r="AV9" s="20">
+      <c r="AV9" s="18">
         <v>0</v>
       </c>
-      <c r="AW9" s="20">
+      <c r="AW9" s="18">
         <v>11.764705882352942</v>
       </c>
-      <c r="AX9" s="20">
+      <c r="AX9" s="18">
         <v>5.882352941176471</v>
       </c>
       <c r="BV9" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="BW9" s="20">
+      <c r="BW9" s="18">
         <v>0</v>
       </c>
-      <c r="BX9" s="20">
+      <c r="BX9" s="18">
         <v>0</v>
       </c>
-      <c r="BY9" s="20">
+      <c r="BY9" s="18">
         <v>0</v>
       </c>
-      <c r="BZ9" s="20">
+      <c r="BZ9" s="18">
         <v>0</v>
       </c>
-      <c r="CA9" s="20">
+      <c r="CA9" s="18">
         <v>23.529411764705884</v>
       </c>
-      <c r="CB9" s="20">
+      <c r="CB9" s="18">
         <v>76.470588235294116</v>
       </c>
     </row>
@@ -15237,43 +14501,43 @@
       <c r="AR10" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AS10" s="20">
+      <c r="AS10" s="18">
         <v>-5.882352941176471</v>
       </c>
-      <c r="AT10" s="20">
+      <c r="AT10" s="18">
         <v>0</v>
       </c>
-      <c r="AU10" s="20">
+      <c r="AU10" s="18">
         <v>-5.882352941176471</v>
       </c>
-      <c r="AV10" s="20">
+      <c r="AV10" s="18">
         <v>5.882352941176471</v>
       </c>
-      <c r="AW10" s="20">
+      <c r="AW10" s="18">
         <v>29.411764705882351</v>
       </c>
-      <c r="AX10" s="20">
+      <c r="AX10" s="18">
         <v>52.941176470588232</v>
       </c>
       <c r="BV10" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="BW10" s="20">
+      <c r="BW10" s="18">
         <v>-70.588235294117652</v>
       </c>
-      <c r="BX10" s="20">
+      <c r="BX10" s="18">
         <v>-23.529411764705884</v>
       </c>
-      <c r="BY10" s="20">
+      <c r="BY10" s="18">
         <v>-2.9411764705882355</v>
       </c>
-      <c r="BZ10" s="20">
+      <c r="BZ10" s="18">
         <v>2.9411764705882355</v>
       </c>
-      <c r="CA10" s="20">
+      <c r="CA10" s="18">
         <v>0</v>
       </c>
-      <c r="CB10" s="20">
+      <c r="CB10" s="18">
         <v>0</v>
       </c>
     </row>
@@ -15332,43 +14596,43 @@
       <c r="AR11" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="AS11" s="20">
+      <c r="AS11" s="18">
         <v>0</v>
       </c>
-      <c r="AT11" s="20">
+      <c r="AT11" s="18">
         <v>-23.529411764705884</v>
       </c>
-      <c r="AU11" s="20">
+      <c r="AU11" s="18">
         <v>-64.705882352941174</v>
       </c>
-      <c r="AV11" s="20">
+      <c r="AV11" s="18">
         <v>0</v>
       </c>
-      <c r="AW11" s="20">
+      <c r="AW11" s="18">
         <v>11.764705882352942</v>
       </c>
-      <c r="AX11" s="20">
+      <c r="AX11" s="18">
         <v>0</v>
       </c>
       <c r="BV11" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="BW11" s="20">
+      <c r="BW11" s="18">
         <v>0</v>
       </c>
-      <c r="BX11" s="20">
+      <c r="BX11" s="18">
         <v>0</v>
       </c>
-      <c r="BY11" s="20">
+      <c r="BY11" s="18">
         <v>0</v>
       </c>
-      <c r="BZ11" s="20">
+      <c r="BZ11" s="18">
         <v>0</v>
       </c>
-      <c r="CA11" s="20">
+      <c r="CA11" s="18">
         <v>11.764705882352942</v>
       </c>
-      <c r="CB11" s="20">
+      <c r="CB11" s="18">
         <v>88.235294117647058</v>
       </c>
     </row>
@@ -15406,43 +14670,43 @@
       <c r="AR12" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AS12" s="20">
+      <c r="AS12" s="18">
         <v>0</v>
       </c>
-      <c r="AT12" s="20">
+      <c r="AT12" s="18">
         <v>0</v>
       </c>
-      <c r="AU12" s="20">
+      <c r="AU12" s="18">
         <v>0</v>
       </c>
-      <c r="AV12" s="20">
+      <c r="AV12" s="18">
         <v>0</v>
       </c>
-      <c r="AW12" s="20">
+      <c r="AW12" s="18">
         <v>23.529411764705884</v>
       </c>
-      <c r="AX12" s="20">
+      <c r="AX12" s="18">
         <v>76.470588235294116</v>
       </c>
       <c r="BV12" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="BW12" s="20">
+      <c r="BW12" s="18">
         <v>-76.470588235294116</v>
       </c>
-      <c r="BX12" s="20">
+      <c r="BX12" s="18">
         <v>-17.647058823529413</v>
       </c>
-      <c r="BY12" s="20">
+      <c r="BY12" s="18">
         <v>0</v>
       </c>
-      <c r="BZ12" s="20">
+      <c r="BZ12" s="18">
         <v>0</v>
       </c>
-      <c r="CA12" s="20">
+      <c r="CA12" s="18">
         <v>5.882352941176471</v>
       </c>
-      <c r="CB12" s="20">
+      <c r="CB12" s="18">
         <v>0</v>
       </c>
     </row>
@@ -15532,22 +14796,22 @@
       <c r="AR13" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AS13" s="20">
+      <c r="AS13" s="18">
         <v>-2.9411764705882355</v>
       </c>
-      <c r="AT13" s="20">
+      <c r="AT13" s="18">
         <v>-23.529411764705884</v>
       </c>
-      <c r="AU13" s="20">
+      <c r="AU13" s="18">
         <v>-70.588235294117652</v>
       </c>
-      <c r="AV13" s="20">
+      <c r="AV13" s="18">
         <v>2.9411764705882355</v>
       </c>
-      <c r="AW13" s="20">
+      <c r="AW13" s="18">
         <v>0</v>
       </c>
-      <c r="AX13" s="20">
+      <c r="AX13" s="18">
         <v>0</v>
       </c>
     </row>
@@ -15643,22 +14907,22 @@
       <c r="AR14" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="AS14" s="20">
+      <c r="AS14" s="18">
         <v>0</v>
       </c>
-      <c r="AT14" s="20">
+      <c r="AT14" s="18">
         <v>0</v>
       </c>
-      <c r="AU14" s="20">
+      <c r="AU14" s="18">
         <v>0</v>
       </c>
-      <c r="AV14" s="20">
+      <c r="AV14" s="18">
         <v>0</v>
       </c>
-      <c r="AW14" s="20">
+      <c r="AW14" s="18">
         <v>11.764705882352942</v>
       </c>
-      <c r="AX14" s="20">
+      <c r="AX14" s="18">
         <v>88.235294117647058</v>
       </c>
     </row>
@@ -15754,22 +15018,22 @@
       <c r="AR15" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AS15" s="20">
+      <c r="AS15" s="18">
         <v>0</v>
       </c>
-      <c r="AT15" s="20">
+      <c r="AT15" s="18">
         <v>-17.647058823529413</v>
       </c>
-      <c r="AU15" s="20">
+      <c r="AU15" s="18">
         <v>-76.470588235294116</v>
       </c>
-      <c r="AV15" s="20">
+      <c r="AV15" s="18">
         <v>0</v>
       </c>
-      <c r="AW15" s="20">
+      <c r="AW15" s="18">
         <v>5.882352941176471</v>
       </c>
-      <c r="AX15" s="20">
+      <c r="AX15" s="18">
         <v>0</v>
       </c>
     </row>
@@ -16330,15 +15594,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8268C1A4-9360-4D70-A585-6E201842CAD7}">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.7109375" customWidth="1"/>
+    <col min="1" max="1" width="45.85546875" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
     <col min="6" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -16355,7 +15619,7 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>147</v>
       </c>
       <c r="B2" s="12">
@@ -16645,142 +15909,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="16"/>
-    </row>
-    <row r="48" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="15" t="s">
-        <v>156</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -16829,7 +15961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="19" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="17" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>46</v>
       </c>
@@ -17642,7 +16774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F62C60-52E5-48D1-8EE3-DA050404E753}">
   <dimension ref="A2:X25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
